--- a/figures/Fig1/c1_GO_KEGG.xlsx
+++ b/figures/Fig1/c1_GO_KEGG.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
-    <sheet name="c1" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="1170">
   <si>
     <t>ID</t>
   </si>
@@ -12827,9268 +12826,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.4972625919022577E-10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.2127826994408288E-8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.1032461203490319E-8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>915</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.450914482936584E-9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.6126203655893166E-7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.376652704239794E-7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>916</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.7511334273491227E-4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004728060253842631</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0043010294706820554</v>
-      </c>
-      <c r="H4" t="s">
-        <v>917</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.004971451741665415</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.10067189776872465</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09157937418857343</v>
-      </c>
-      <c r="H5" t="s">
-        <v>918</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01115531172924874</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1807160500138296</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1643940675889288</v>
-      </c>
-      <c r="H6" t="s">
-        <v>919</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01443332516682664</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.19484988975215964</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.177251361697871</v>
-      </c>
-      <c r="H7" t="s">
-        <v>920</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" t="s">
-        <v>649</v>
-      </c>
-      <c r="D8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.017361007369399495</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.20089165670305129</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.18274744599367887</v>
-      </c>
-      <c r="H8" t="s">
-        <v>921</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D9" t="s">
-        <v>691</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02037705800222495</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.20631771227252763</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1876834289678614</v>
-      </c>
-      <c r="H9" t="s">
-        <v>922</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" t="s">
-        <v>650</v>
-      </c>
-      <c r="D10" t="s">
-        <v>692</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.04561273366803331</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H10" t="s">
-        <v>923</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" t="s">
-        <v>648</v>
-      </c>
-      <c r="D11" t="s">
-        <v>693</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.04670662394600277</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H11" t="s">
-        <v>924</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" t="s">
-        <v>649</v>
-      </c>
-      <c r="D12" t="s">
-        <v>694</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.046720362647441414</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H12" t="s">
-        <v>925</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" t="s">
-        <v>649</v>
-      </c>
-      <c r="D13" t="s">
-        <v>695</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.05417313345444635</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H13" t="s">
-        <v>926</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" t="s">
-        <v>695</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.05417313345444635</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H14" t="s">
-        <v>925</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" t="s">
-        <v>650</v>
-      </c>
-      <c r="D15" t="s">
-        <v>696</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.05719184530954168</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H15" t="s">
-        <v>927</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C16" t="s">
-        <v>651</v>
-      </c>
-      <c r="D16" t="s">
-        <v>697</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.06214676724701531</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H16" t="s">
-        <v>928</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>342</v>
-      </c>
-      <c r="C17" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" t="s">
-        <v>698</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.06855130254176636</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H17" t="s">
-        <v>929</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" t="s">
-        <v>649</v>
-      </c>
-      <c r="D18" t="s">
-        <v>699</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.07190136464946964</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H18" t="s">
-        <v>930</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" t="s">
-        <v>649</v>
-      </c>
-      <c r="D19" t="s">
-        <v>699</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.07190136464946964</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.32355614092261337</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.29433307166449557</v>
-      </c>
-      <c r="H19" t="s">
-        <v>931</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" t="s">
-        <v>649</v>
-      </c>
-      <c r="D20" t="s">
-        <v>700</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.11965736820325161</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.5101182539191254</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.46404519524806714</v>
-      </c>
-      <c r="H20" t="s">
-        <v>932</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" t="s">
-        <v>650</v>
-      </c>
-      <c r="D21" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1489821925373973</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.5905140461028673</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5371797690344472</v>
-      </c>
-      <c r="H21" t="s">
-        <v>933</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" t="s">
-        <v>650</v>
-      </c>
-      <c r="D22" t="s">
-        <v>693</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1546366772560878</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.5905140461028673</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5371797690344472</v>
-      </c>
-      <c r="H22" t="s">
-        <v>934</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" t="s">
-        <v>649</v>
-      </c>
-      <c r="D23" t="s">
-        <v>702</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.16038653104028494</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.5905140461028673</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.5371797690344472</v>
-      </c>
-      <c r="H23" t="s">
-        <v>935</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" t="s">
-        <v>649</v>
-      </c>
-      <c r="D24" t="s">
-        <v>703</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.17520016402917574</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.615536111192172</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.5599418815263423</v>
-      </c>
-      <c r="H24" t="s">
-        <v>936</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C25" t="s">
-        <v>650</v>
-      </c>
-      <c r="D25" t="s">
-        <v>704</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.18238106998286577</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.615536111192172</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5599418815263423</v>
-      </c>
-      <c r="H25" t="s">
-        <v>937</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C26" t="s">
-        <v>652</v>
-      </c>
-      <c r="D26" t="s">
-        <v>705</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1940885402010657</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.6288468702514529</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5720504342768251</v>
-      </c>
-      <c r="H26" t="s">
-        <v>938</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" t="s">
-        <v>706</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.20543000655495006</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.6399934819596521</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.5821903019775913</v>
-      </c>
-      <c r="H27" t="s">
-        <v>939</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C28" t="s">
-        <v>652</v>
-      </c>
-      <c r="D28" t="s">
-        <v>707</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.23190513479132557</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.6708684256463346</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6102766705034882</v>
-      </c>
-      <c r="H28" t="s">
-        <v>940</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" t="s">
-        <v>652</v>
-      </c>
-      <c r="D29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.23190513479132557</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.6708684256463346</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6102766705034882</v>
-      </c>
-      <c r="H29" t="s">
-        <v>941</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" t="s">
-        <v>708</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.25015389898725193</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.6795924001335891</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.6182127096731804</v>
-      </c>
-      <c r="H30" t="s">
-        <v>941</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" t="s">
-        <v>649</v>
-      </c>
-      <c r="D31" t="s">
-        <v>709</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.25170088893836634</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.6795924001335891</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.6182127096731804</v>
-      </c>
-      <c r="H31" t="s">
-        <v>929</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>357</v>
-      </c>
-      <c r="C32" t="s">
-        <v>650</v>
-      </c>
-      <c r="D32" t="s">
-        <v>710</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.2703480989137826</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.6933018970718144</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.6306839869399221</v>
-      </c>
-      <c r="H32" t="s">
-        <v>942</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>358</v>
-      </c>
-      <c r="C33" t="s">
-        <v>649</v>
-      </c>
-      <c r="D33" t="s">
-        <v>711</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.2738970457567662</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6933018970718144</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.6306839869399221</v>
-      </c>
-      <c r="H33" t="s">
-        <v>943</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" t="s">
-        <v>648</v>
-      </c>
-      <c r="D34" t="s">
-        <v>712</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.29669681236145296</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H34" t="s">
-        <v>944</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" t="s">
-        <v>652</v>
-      </c>
-      <c r="D35" t="s">
-        <v>695</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.3148694727738589</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H35" t="s">
-        <v>945</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" t="s">
-        <v>652</v>
-      </c>
-      <c r="D36" t="s">
-        <v>713</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.31898309291662497</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H36" t="s">
-        <v>946</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C37" t="s">
-        <v>652</v>
-      </c>
-      <c r="D37" t="s">
-        <v>714</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.3391898653545209</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H37" t="s">
-        <v>941</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>363</v>
-      </c>
-      <c r="C38" t="s">
-        <v>649</v>
-      </c>
-      <c r="D38" t="s">
-        <v>715</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.3445100624069223</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H38" t="s">
-        <v>947</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" t="s">
-        <v>652</v>
-      </c>
-      <c r="D39" t="s">
-        <v>698</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3510298617709299</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H39" t="s">
-        <v>948</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" t="s">
-        <v>652</v>
-      </c>
-      <c r="D40" t="s">
-        <v>698</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3510298617709299</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H40" t="s">
-        <v>948</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" t="s">
-        <v>649</v>
-      </c>
-      <c r="D41" t="s">
-        <v>716</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3726767303750663</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H41" t="s">
-        <v>949</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>367</v>
-      </c>
-      <c r="C42" t="s">
-        <v>652</v>
-      </c>
-      <c r="D42" t="s">
-        <v>717</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.40358338212199907</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H42" t="s">
-        <v>941</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>368</v>
-      </c>
-      <c r="C43" t="s">
-        <v>652</v>
-      </c>
-      <c r="D43" t="s">
-        <v>718</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.40717289792950373</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H43" t="s">
-        <v>950</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" t="s">
-        <v>652</v>
-      </c>
-      <c r="D44" t="s">
-        <v>719</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.4107411806111234</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H44" t="s">
-        <v>951</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" t="s">
-        <v>652</v>
-      </c>
-      <c r="D45" t="s">
-        <v>720</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.41428835357682736</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H45" t="s">
-        <v>948</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" t="s">
-        <v>652</v>
-      </c>
-      <c r="D46" t="s">
-        <v>721</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.4178145395320426</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H46" t="s">
-        <v>941</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" t="s">
-        <v>652</v>
-      </c>
-      <c r="D47" t="s">
-        <v>722</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.42480443773368903</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H47" t="s">
-        <v>952</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>373</v>
-      </c>
-      <c r="C48" t="s">
-        <v>652</v>
-      </c>
-      <c r="D48" t="s">
-        <v>723</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.42826839190370736</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H48" t="s">
-        <v>945</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>374</v>
-      </c>
-      <c r="C49" t="s">
-        <v>652</v>
-      </c>
-      <c r="D49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.42826839190370736</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H49" t="s">
-        <v>953</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>375</v>
-      </c>
-      <c r="C50" t="s">
-        <v>652</v>
-      </c>
-      <c r="D50" t="s">
-        <v>724</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.4317118429182021</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H50" t="s">
-        <v>948</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>376</v>
-      </c>
-      <c r="C51" t="s">
-        <v>652</v>
-      </c>
-      <c r="D51" t="s">
-        <v>725</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.45525184260618556</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H51" t="s">
-        <v>954</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>377</v>
-      </c>
-      <c r="C52" t="s">
-        <v>652</v>
-      </c>
-      <c r="D52" t="s">
-        <v>726</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.4617997118729812</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H52" t="s">
-        <v>941</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>378</v>
-      </c>
-      <c r="C53" t="s">
-        <v>652</v>
-      </c>
-      <c r="D53" t="s">
-        <v>727</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.46504457847499414</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H53" t="s">
-        <v>941</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>379</v>
-      </c>
-      <c r="C54" t="s">
-        <v>652</v>
-      </c>
-      <c r="D54" t="s">
-        <v>728</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.46827021673764646</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H54" t="s">
-        <v>948</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>380</v>
-      </c>
-      <c r="C55" t="s">
-        <v>652</v>
-      </c>
-      <c r="D55" t="s">
-        <v>729</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.48411387906503256</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H55" t="s">
-        <v>955</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C56" t="s">
-        <v>652</v>
-      </c>
-      <c r="D56" t="s">
-        <v>729</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.48411387906503256</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H56" t="s">
-        <v>941</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>382</v>
-      </c>
-      <c r="C57" t="s">
-        <v>652</v>
-      </c>
-      <c r="D57" t="s">
-        <v>730</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.4933964037131512</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H57" t="s">
-        <v>941</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>383</v>
-      </c>
-      <c r="C58" t="s">
-        <v>652</v>
-      </c>
-      <c r="D58" t="s">
-        <v>731</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5055181834052496</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H58" t="s">
-        <v>941</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" t="s">
-        <v>652</v>
-      </c>
-      <c r="D59" t="s">
-        <v>732</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5085038116961609</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.7101518749549833</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.6460121019733441</v>
-      </c>
-      <c r="H59" t="s">
-        <v>941</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>385</v>
-      </c>
-      <c r="C60" t="s">
-        <v>652</v>
-      </c>
-      <c r="D60" t="s">
-        <v>733</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5231682414289008</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.7182479246735757</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.6533769295276192</v>
-      </c>
-      <c r="H60" t="s">
-        <v>953</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C61" t="s">
-        <v>652</v>
-      </c>
-      <c r="D61" t="s">
-        <v>734</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5429784801772051</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.7307156412849265</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.6647185820655602</v>
-      </c>
-      <c r="H61" t="s">
-        <v>941</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>387</v>
-      </c>
-      <c r="C62" t="s">
-        <v>649</v>
-      </c>
-      <c r="D62" t="s">
-        <v>735</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5528285012807688</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.7307156412849265</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.6647185820655602</v>
-      </c>
-      <c r="H62" t="s">
-        <v>956</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>388</v>
-      </c>
-      <c r="C63" t="s">
-        <v>652</v>
-      </c>
-      <c r="D63" t="s">
-        <v>736</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.55931320690945</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.7307156412849265</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.6647185820655602</v>
-      </c>
-      <c r="H63" t="s">
-        <v>941</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>389</v>
-      </c>
-      <c r="C64" t="s">
-        <v>652</v>
-      </c>
-      <c r="D64" t="s">
-        <v>737</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5902801381865798</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H64" t="s">
-        <v>957</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>390</v>
-      </c>
-      <c r="C65" t="s">
-        <v>652</v>
-      </c>
-      <c r="D65" t="s">
-        <v>738</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5952290701465501</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H65" t="s">
-        <v>948</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>391</v>
-      </c>
-      <c r="C66" t="s">
-        <v>652</v>
-      </c>
-      <c r="D66" t="s">
-        <v>739</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.6049513430473519</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H66" t="s">
-        <v>938</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C67" t="s">
-        <v>652</v>
-      </c>
-      <c r="D67" t="s">
-        <v>740</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.6097260472301991</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H67" t="s">
-        <v>941</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>393</v>
-      </c>
-      <c r="C68" t="s">
-        <v>652</v>
-      </c>
-      <c r="D68" t="s">
-        <v>741</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.628264191588896</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H68" t="s">
-        <v>941</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>394</v>
-      </c>
-      <c r="C69" t="s">
-        <v>652</v>
-      </c>
-      <c r="D69" t="s">
-        <v>742</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.6394081508367144</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H69" t="s">
-        <v>958</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" t="s">
-        <v>652</v>
-      </c>
-      <c r="D70" t="s">
-        <v>743</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.6523481430812208</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H70" t="s">
-        <v>957</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" t="s">
-        <v>652</v>
-      </c>
-      <c r="D71" t="s">
-        <v>743</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.6523481430812208</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H71" t="s">
-        <v>959</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>397</v>
-      </c>
-      <c r="C72" t="s">
-        <v>652</v>
-      </c>
-      <c r="D72" t="s">
-        <v>743</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.6523481430812208</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H72" t="s">
-        <v>957</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" t="s">
-        <v>652</v>
-      </c>
-      <c r="D73" t="s">
-        <v>744</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.6627819729969844</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H73" t="s">
-        <v>950</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C74" t="s">
-        <v>652</v>
-      </c>
-      <c r="D74" t="s">
-        <v>745</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.6668687859273137</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.7399502967138686</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.6731191782972165</v>
-      </c>
-      <c r="H74" t="s">
-        <v>958</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>400</v>
-      </c>
-      <c r="C75" t="s">
-        <v>652</v>
-      </c>
-      <c r="D75" t="s">
-        <v>746</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.7140250248185189</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.781567932571622</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.7109779763484542</v>
-      </c>
-      <c r="H75" t="s">
-        <v>941</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>401</v>
-      </c>
-      <c r="C76" t="s">
-        <v>652</v>
-      </c>
-      <c r="D76" t="s">
-        <v>693</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.7485152956682785</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.7993969768894226</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.7271967301138346</v>
-      </c>
-      <c r="H76" t="s">
-        <v>951</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>402</v>
-      </c>
-      <c r="C77" t="s">
-        <v>652</v>
-      </c>
-      <c r="D77" t="s">
-        <v>747</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.7500514844888408</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.7993969768894226</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.7271967301138346</v>
-      </c>
-      <c r="H77" t="s">
-        <v>957</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" t="s">
-        <v>652</v>
-      </c>
-      <c r="D78" t="s">
-        <v>748</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.763468613852803</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.8031293210659356</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.7305919749787588</v>
-      </c>
-      <c r="H78" t="s">
-        <v>941</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>404</v>
-      </c>
-      <c r="C79" t="s">
-        <v>652</v>
-      </c>
-      <c r="D79" t="s">
-        <v>749</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.7855956045465886</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.8158108201060729</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.7421281014610148</v>
-      </c>
-      <c r="H79" t="s">
-        <v>941</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>405</v>
-      </c>
-      <c r="C80" t="s">
-        <v>652</v>
-      </c>
-      <c r="D80" t="s">
-        <v>750</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.8092402406339652</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.8205411792893786</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.7464312222255556</v>
-      </c>
-      <c r="H80" t="s">
-        <v>941</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" t="s">
-        <v>406</v>
-      </c>
-      <c r="C81" t="s">
-        <v>652</v>
-      </c>
-      <c r="D81" t="s">
-        <v>751</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.8104110412734604</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.8205411792893786</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.7464312222255556</v>
-      </c>
-      <c r="H81" t="s">
-        <v>957</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>407</v>
-      </c>
-      <c r="C82" t="s">
-        <v>652</v>
-      </c>
-      <c r="D82" t="s">
-        <v>752</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.8933630131476977</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.8933630131476977</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.8126759053975158</v>
-      </c>
-      <c r="H82" t="s">
-        <v>941</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>408</v>
-      </c>
-      <c r="C83" t="s">
-        <v>653</v>
-      </c>
-      <c r="D83" t="s">
-        <v>753</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.5874819235013123E-74</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3.852818628337685E-71</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2.3628415156114272E-71</v>
-      </c>
-      <c r="H83" t="s">
-        <v>960</v>
-      </c>
-      <c r="I83" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>409</v>
-      </c>
-      <c r="C84" t="s">
-        <v>654</v>
-      </c>
-      <c r="D84" t="s">
-        <v>754</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.9936293781605445E-61</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3.230846166931881E-58</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.9814006809540386E-58</v>
-      </c>
-      <c r="H84" t="s">
-        <v>961</v>
-      </c>
-      <c r="I84" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" t="s">
-        <v>410</v>
-      </c>
-      <c r="C85" t="s">
-        <v>655</v>
-      </c>
-      <c r="D85" t="s">
-        <v>755</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.9446673690842523E-46</v>
-      </c>
-      <c r="F85" t="n">
-        <v>9.43941540953496E-44</v>
-      </c>
-      <c r="G85" t="n">
-        <v>5.788967705021332E-44</v>
-      </c>
-      <c r="H85" t="s">
-        <v>962</v>
-      </c>
-      <c r="I85" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>411</v>
-      </c>
-      <c r="C86" t="s">
-        <v>656</v>
-      </c>
-      <c r="D86" t="s">
-        <v>756</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.4212911830327123E-41</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.92781957317199E-39</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3.022113883922189E-39</v>
-      </c>
-      <c r="H86" t="s">
-        <v>963</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>412</v>
-      </c>
-      <c r="C87" t="s">
-        <v>657</v>
-      </c>
-      <c r="D87" t="s">
-        <v>757</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.733295838222269E-32</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5.2583862492068085E-30</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3.224842520060906E-30</v>
-      </c>
-      <c r="H87" t="s">
-        <v>964</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" t="s">
-        <v>413</v>
-      </c>
-      <c r="C88" t="s">
-        <v>658</v>
-      </c>
-      <c r="D88" t="s">
-        <v>758</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.222096047063587E-32</v>
-      </c>
-      <c r="F88" t="n">
-        <v>5.9922523402481405E-30</v>
-      </c>
-      <c r="G88" t="n">
-        <v>3.6749050415765055E-30</v>
-      </c>
-      <c r="H88" t="s">
-        <v>965</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>414</v>
-      </c>
-      <c r="C89" t="s">
-        <v>659</v>
-      </c>
-      <c r="D89" t="s">
-        <v>759</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.8450435877768323E-30</v>
-      </c>
-      <c r="F89" t="n">
-        <v>4.477920787534371E-28</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.7462017190699383E-28</v>
-      </c>
-      <c r="H89" t="s">
-        <v>966</v>
-      </c>
-      <c r="I89" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" t="s">
-        <v>415</v>
-      </c>
-      <c r="C90" t="s">
-        <v>660</v>
-      </c>
-      <c r="D90" t="s">
-        <v>760</v>
-      </c>
-      <c r="E90" t="n">
-        <v>3.40131171833022E-30</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7.504530491261312E-28</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4.602349061931992E-28</v>
-      </c>
-      <c r="H90" t="s">
-        <v>967</v>
-      </c>
-      <c r="I90" t="n">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" t="s">
-        <v>416</v>
-      </c>
-      <c r="C91" t="s">
-        <v>661</v>
-      </c>
-      <c r="D91" t="s">
-        <v>761</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.9238472677339561E-28</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3.890981098991926E-26</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.3862456461191354E-26</v>
-      </c>
-      <c r="H91" t="s">
-        <v>968</v>
-      </c>
-      <c r="I91" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>417</v>
-      </c>
-      <c r="C92" t="s">
-        <v>658</v>
-      </c>
-      <c r="D92" t="s">
-        <v>762</v>
-      </c>
-      <c r="E92" t="n">
-        <v>8.354721902809032E-26</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.1264950032287511E-23</v>
-      </c>
-      <c r="G92" t="n">
-        <v>6.908524427235072E-24</v>
-      </c>
-      <c r="H92" t="s">
-        <v>969</v>
-      </c>
-      <c r="I92" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>418</v>
-      </c>
-      <c r="C93" t="s">
-        <v>662</v>
-      </c>
-      <c r="D93" t="s">
-        <v>763</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.1727420803729295E-24</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.775392120560579E-22</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.7020816075608436E-22</v>
-      </c>
-      <c r="H93" t="s">
-        <v>970</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" t="s">
-        <v>419</v>
-      </c>
-      <c r="C94" t="s">
-        <v>657</v>
-      </c>
-      <c r="D94" t="s">
-        <v>764</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4.212353126191035E-24</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4.86827668441221E-22</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2.985597654352944E-22</v>
-      </c>
-      <c r="H94" t="s">
-        <v>971</v>
-      </c>
-      <c r="I94" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>420</v>
-      </c>
-      <c r="C95" t="s">
-        <v>663</v>
-      </c>
-      <c r="D95" t="s">
-        <v>758</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3.4252976623255706E-23</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.197383625563138E-21</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.960878904667351E-21</v>
-      </c>
-      <c r="H95" t="s">
-        <v>972</v>
-      </c>
-      <c r="I95" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>421</v>
-      </c>
-      <c r="C96" t="s">
-        <v>664</v>
-      </c>
-      <c r="D96" t="s">
-        <v>765</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.950505175189793E-21</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.5779586867285428E-19</v>
-      </c>
-      <c r="G96" t="n">
-        <v>9.677243220064449E-20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>973</v>
-      </c>
-      <c r="I96" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" t="s">
-        <v>422</v>
-      </c>
-      <c r="C97" t="s">
-        <v>663</v>
-      </c>
-      <c r="D97" t="s">
-        <v>766</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.2711680271562953E-18</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1.489763459975224E-16</v>
-      </c>
-      <c r="G97" t="n">
-        <v>9.136362988332865E-17</v>
-      </c>
-      <c r="H97" t="s">
-        <v>974</v>
-      </c>
-      <c r="I97" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" t="s">
-        <v>423</v>
-      </c>
-      <c r="C98" t="s">
-        <v>657</v>
-      </c>
-      <c r="D98" t="s">
-        <v>767</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.03113396098179E-18</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.130913364949437E-16</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.9201142836243594E-16</v>
-      </c>
-      <c r="H98" t="s">
-        <v>975</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" t="s">
-        <v>424</v>
-      </c>
-      <c r="C99" t="s">
-        <v>665</v>
-      </c>
-      <c r="D99" t="s">
-        <v>768</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.365728216233798E-17</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.4003957026340068E-15</v>
-      </c>
-      <c r="G99" t="n">
-        <v>8.58829190694375E-16</v>
-      </c>
-      <c r="H99" t="s">
-        <v>976</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" t="s">
-        <v>425</v>
-      </c>
-      <c r="C100" t="s">
-        <v>666</v>
-      </c>
-      <c r="D100" t="s">
-        <v>769</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.6459102412672352E-16</v>
-      </c>
-      <c r="F100" t="n">
-        <v>8.322133657407458E-15</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5.103765528841822E-15</v>
-      </c>
-      <c r="H100" t="s">
-        <v>977</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" t="s">
-        <v>426</v>
-      </c>
-      <c r="C101" t="s">
-        <v>667</v>
-      </c>
-      <c r="D101" t="s">
-        <v>770</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.831921490395599E-16</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.4026680524877794E-14</v>
-      </c>
-      <c r="G101" t="n">
-        <v>8.602227685111444E-15</v>
-      </c>
-      <c r="H101" t="s">
-        <v>978</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" t="s">
-        <v>427</v>
-      </c>
-      <c r="C102" t="s">
-        <v>668</v>
-      </c>
-      <c r="D102" t="s">
-        <v>771</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.1583460713438198E-15</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9.883596066323491E-14</v>
-      </c>
-      <c r="G102" t="n">
-        <v>6.061373078212834E-14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>979</v>
-      </c>
-      <c r="I102" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" t="s">
-        <v>669</v>
-      </c>
-      <c r="D103" t="s">
-        <v>772</v>
-      </c>
-      <c r="E103" t="n">
-        <v>8.993340897707997E-15</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3.8292698874977736E-13</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.348399636077398E-13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>980</v>
-      </c>
-      <c r="I103" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104" t="s">
-        <v>429</v>
-      </c>
-      <c r="C104" t="s">
-        <v>669</v>
-      </c>
-      <c r="D104" t="s">
-        <v>773</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.3517166460101084E-14</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5.560366609943276E-13</v>
-      </c>
-      <c r="G104" t="n">
-        <v>3.410039852735582E-13</v>
-      </c>
-      <c r="H104" t="s">
-        <v>980</v>
-      </c>
-      <c r="I104" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" t="s">
-        <v>430</v>
-      </c>
-      <c r="C105" t="s">
-        <v>670</v>
-      </c>
-      <c r="D105" t="s">
-        <v>774</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.377507476500878E-14</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5.572017742446052E-13</v>
-      </c>
-      <c r="G105" t="n">
-        <v>3.417185213635512E-13</v>
-      </c>
-      <c r="H105" t="s">
-        <v>981</v>
-      </c>
-      <c r="I105" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>431</v>
-      </c>
-      <c r="C106" t="s">
-        <v>671</v>
-      </c>
-      <c r="D106" t="s">
-        <v>775</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2.0445681323603856E-14</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8.134699765965009E-13</v>
-      </c>
-      <c r="G106" t="n">
-        <v>4.98881680613906E-13</v>
-      </c>
-      <c r="H106" t="s">
-        <v>982</v>
-      </c>
-      <c r="I106" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" t="s">
-        <v>432</v>
-      </c>
-      <c r="C107" t="s">
-        <v>663</v>
-      </c>
-      <c r="D107" t="s">
-        <v>776</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.117112789117845E-14</v>
-      </c>
-      <c r="F107" t="n">
-        <v>8.287472159982275E-13</v>
-      </c>
-      <c r="G107" t="n">
-        <v>5.082508461481551E-13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>983</v>
-      </c>
-      <c r="I107" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" t="s">
-        <v>433</v>
-      </c>
-      <c r="C108" t="s">
-        <v>672</v>
-      </c>
-      <c r="D108" t="s">
-        <v>777</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.2013863717508513E-14</v>
-      </c>
-      <c r="F108" t="n">
-        <v>8.470152235298633E-13</v>
-      </c>
-      <c r="G108" t="n">
-        <v>5.194541782452787E-13</v>
-      </c>
-      <c r="H108" t="s">
-        <v>984</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" t="s">
-        <v>434</v>
-      </c>
-      <c r="C109" t="s">
-        <v>672</v>
-      </c>
-      <c r="D109" t="s">
-        <v>778</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4.383132631804304E-14</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.541719260491166E-12</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9.454995486455052E-13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>985</v>
-      </c>
-      <c r="I109" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" t="s">
-        <v>435</v>
-      </c>
-      <c r="C110" t="s">
-        <v>673</v>
-      </c>
-      <c r="D110" t="s">
-        <v>779</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.235015902095648E-14</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2.405395012929608E-12</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.4751712307949888E-12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>986</v>
-      </c>
-      <c r="I110" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" t="s">
-        <v>436</v>
-      </c>
-      <c r="C111" t="s">
-        <v>674</v>
-      </c>
-      <c r="D111" t="s">
-        <v>780</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.9315293430256848E-13</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5.933951538637135E-12</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3.6391505543481934E-12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>987</v>
-      </c>
-      <c r="I111" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" t="s">
-        <v>437</v>
-      </c>
-      <c r="C112" t="s">
-        <v>667</v>
-      </c>
-      <c r="D112" t="s">
-        <v>781</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.0038462774360415E-13</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6.079168644171591E-12</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3.728208731966531E-12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>988</v>
-      </c>
-      <c r="I112" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" t="s">
-        <v>669</v>
-      </c>
-      <c r="D113" t="s">
-        <v>782</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.1991652254428133E-13</v>
-      </c>
-      <c r="F113" t="n">
-        <v>6.5618575151824436E-12</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4.024230271926778E-12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>989</v>
-      </c>
-      <c r="I113" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" t="s">
-        <v>439</v>
-      </c>
-      <c r="C114" t="s">
-        <v>671</v>
-      </c>
-      <c r="D114" t="s">
-        <v>783</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.1220914806646133E-13</v>
-      </c>
-      <c r="F114" t="n">
-        <v>9.0206143137774E-12</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5.532127009598701E-12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>990</v>
-      </c>
-      <c r="I114" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" t="s">
-        <v>440</v>
-      </c>
-      <c r="C115" t="s">
-        <v>669</v>
-      </c>
-      <c r="D115" t="s">
-        <v>784</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.479586428856292E-13</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2.0865466968774968E-11</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.279629184561742E-11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>991</v>
-      </c>
-      <c r="I115" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" t="s">
-        <v>441</v>
-      </c>
-      <c r="C116" t="s">
-        <v>668</v>
-      </c>
-      <c r="D116" t="s">
-        <v>785</v>
-      </c>
-      <c r="E116" t="n">
-        <v>8.887961758613743E-13</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2.4512594531994948E-11</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.5032987950573966E-11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>992</v>
-      </c>
-      <c r="I116" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" t="s">
-        <v>442</v>
-      </c>
-      <c r="C117" t="s">
-        <v>672</v>
-      </c>
-      <c r="D117" t="s">
-        <v>786</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.892561218432118E-11</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4.1756782519406817E-10</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.5608436008258514E-10</v>
-      </c>
-      <c r="H117" t="s">
-        <v>993</v>
-      </c>
-      <c r="I117" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" t="s">
-        <v>443</v>
-      </c>
-      <c r="C118" t="s">
-        <v>666</v>
-      </c>
-      <c r="D118" t="s">
-        <v>772</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.277394850367918E-11</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4.891360444108794E-10</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2.9997543720728795E-10</v>
-      </c>
-      <c r="H118" t="s">
-        <v>994</v>
-      </c>
-      <c r="I118" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" t="s">
-        <v>444</v>
-      </c>
-      <c r="C119" t="s">
-        <v>675</v>
-      </c>
-      <c r="D119" t="s">
-        <v>787</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.660829121343203E-11</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.1169782339430856E-9</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.850160357363534E-10</v>
-      </c>
-      <c r="H119" t="s">
-        <v>995</v>
-      </c>
-      <c r="I119" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" t="s">
-        <v>445</v>
-      </c>
-      <c r="C120" t="s">
-        <v>676</v>
-      </c>
-      <c r="D120" t="s">
-        <v>788</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.89494278835805E-11</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1.338722091787599E-9</v>
-      </c>
-      <c r="G120" t="n">
-        <v>8.210062402305925E-10</v>
-      </c>
-      <c r="H120" t="s">
-        <v>996</v>
-      </c>
-      <c r="I120" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" t="s">
-        <v>446</v>
-      </c>
-      <c r="C121" t="s">
-        <v>671</v>
-      </c>
-      <c r="D121" t="s">
-        <v>789</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.171014947613158E-11</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1.3812740696712011E-9</v>
-      </c>
-      <c r="G121" t="n">
-        <v>8.471023505367591E-10</v>
-      </c>
-      <c r="H121" t="s">
-        <v>997</v>
-      </c>
-      <c r="I121" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" t="s">
-        <v>447</v>
-      </c>
-      <c r="C122" t="s">
-        <v>677</v>
-      </c>
-      <c r="D122" t="s">
-        <v>790</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.3578918179118333E-10</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2.5350795708246303E-9</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.5547036684431845E-9</v>
-      </c>
-      <c r="H122" t="s">
-        <v>998</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" t="s">
-        <v>448</v>
-      </c>
-      <c r="C123" t="s">
-        <v>668</v>
-      </c>
-      <c r="D123" t="s">
-        <v>791</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.6169344161676688E-10</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2.972954415181009E-9</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.8232418376882646E-9</v>
-      </c>
-      <c r="H123" t="s">
-        <v>999</v>
-      </c>
-      <c r="I123" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
-        <v>449</v>
-      </c>
-      <c r="C124" t="s">
-        <v>678</v>
-      </c>
-      <c r="D124" t="s">
-        <v>792</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.5094231744292505E-9</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2.333356716139994E-8</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.4309918663378882E-8</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I124" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" t="s">
-        <v>677</v>
-      </c>
-      <c r="D125" t="s">
-        <v>793</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.6441447074494218E-9</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.5255311423922447E-8</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.5488478456585496E-8</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" t="s">
-        <v>451</v>
-      </c>
-      <c r="C126" t="s">
-        <v>677</v>
-      </c>
-      <c r="D126" t="s">
-        <v>794</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2.3835907874248615E-9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3.570972124123542E-8</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2.1899917955937327E-8</v>
-      </c>
-      <c r="H126" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>452</v>
-      </c>
-      <c r="C127" t="s">
-        <v>677</v>
-      </c>
-      <c r="D127" t="s">
-        <v>795</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.950501947604314E-9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8.068082808288083E-8</v>
-      </c>
-      <c r="G127" t="n">
-        <v>4.947962219295796E-8</v>
-      </c>
-      <c r="H127" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" t="s">
-        <v>453</v>
-      </c>
-      <c r="C128" t="s">
-        <v>679</v>
-      </c>
-      <c r="D128" t="s">
-        <v>796</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.1009036068245353E-8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.394695510327126E-7</v>
-      </c>
-      <c r="G128" t="n">
-        <v>8.553333990859653E-8</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" t="s">
-        <v>454</v>
-      </c>
-      <c r="C129" t="s">
-        <v>676</v>
-      </c>
-      <c r="D129" t="s">
-        <v>797</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.187099898051435E-8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1.4774827961901706E-7</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9.061048614546447E-8</v>
-      </c>
-      <c r="H129" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I129" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" t="s">
-        <v>455</v>
-      </c>
-      <c r="C130" t="s">
-        <v>667</v>
-      </c>
-      <c r="D130" t="s">
-        <v>798</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.2963294436018535E-8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1.605199775317193E-7</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9.844306301036633E-8</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I130" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" t="s">
-        <v>456</v>
-      </c>
-      <c r="C131" t="s">
-        <v>675</v>
-      </c>
-      <c r="D131" t="s">
-        <v>799</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.533630264251382E-8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3.0047556535674816E-7</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.8427447765898637E-7</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>139</v>
-      </c>
-      <c r="B132" t="s">
-        <v>457</v>
-      </c>
-      <c r="C132" t="s">
-        <v>680</v>
-      </c>
-      <c r="D132" t="s">
-        <v>800</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.5380095137261378E-8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3.0047556535674816E-7</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1.8427447765898637E-7</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>140</v>
-      </c>
-      <c r="B133" t="s">
-        <v>458</v>
-      </c>
-      <c r="C133" t="s">
-        <v>678</v>
-      </c>
-      <c r="D133" t="s">
-        <v>801</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.7940621066811974E-8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3.275936585949404E-7</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.0090535564948965E-7</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I133" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134" t="s">
-        <v>459</v>
-      </c>
-      <c r="C134" t="s">
-        <v>678</v>
-      </c>
-      <c r="D134" t="s">
-        <v>802</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3.130487262458904E-8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3.652736820186423E-7</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2.2401361280955924E-7</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I134" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135" t="s">
-        <v>460</v>
-      </c>
-      <c r="C135" t="s">
-        <v>680</v>
-      </c>
-      <c r="D135" t="s">
-        <v>803</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3.211808106816978E-8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.6943404148079643E-7</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2.2656506176299365E-7</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I135" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" t="s">
-        <v>461</v>
-      </c>
-      <c r="C136" t="s">
-        <v>677</v>
-      </c>
-      <c r="D136" t="s">
-        <v>804</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.399898667997995E-8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3.892242484542988E-7</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2.387019223708623E-7</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" t="s">
-        <v>462</v>
-      </c>
-      <c r="C137" t="s">
-        <v>680</v>
-      </c>
-      <c r="D137" t="s">
-        <v>805</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.026623043484453E-8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4.52435839191517E-7</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2.7746807911730107E-7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I137" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" t="s">
-        <v>463</v>
-      </c>
-      <c r="C138" t="s">
-        <v>679</v>
-      </c>
-      <c r="D138" t="s">
-        <v>806</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5.9375701971097535E-8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6.462099940979986E-7</v>
-      </c>
-      <c r="G138" t="n">
-        <v>3.9630513376035835E-7</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" t="s">
-        <v>464</v>
-      </c>
-      <c r="C139" t="s">
-        <v>679</v>
-      </c>
-      <c r="D139" t="s">
-        <v>806</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5.9375701971097535E-8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6.462099940979986E-7</v>
-      </c>
-      <c r="G139" t="n">
-        <v>3.9630513376035835E-7</v>
-      </c>
-      <c r="H139" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>147</v>
-      </c>
-      <c r="B140" t="s">
-        <v>465</v>
-      </c>
-      <c r="C140" t="s">
-        <v>667</v>
-      </c>
-      <c r="D140" t="s">
-        <v>807</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.150434363845169E-8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>9.397408324257342E-7</v>
-      </c>
-      <c r="G140" t="n">
-        <v>5.763205764318037E-7</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I140" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" t="s">
-        <v>466</v>
-      </c>
-      <c r="C141" t="s">
-        <v>678</v>
-      </c>
-      <c r="D141" t="s">
-        <v>775</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.1888041688011384E-7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1.1922428585456044E-6</v>
-      </c>
-      <c r="G141" t="n">
-        <v>7.311740298759503E-7</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I141" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142" t="s">
-        <v>467</v>
-      </c>
-      <c r="C142" t="s">
-        <v>677</v>
-      </c>
-      <c r="D142" t="s">
-        <v>808</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.3168609979155813E-7</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1.3098449352217687E-6</v>
-      </c>
-      <c r="G142" t="n">
-        <v>8.03296570773353E-7</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I142" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143" t="s">
-        <v>468</v>
-      </c>
-      <c r="C143" t="s">
-        <v>677</v>
-      </c>
-      <c r="D143" t="s">
-        <v>809</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.634725584947186E-7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1.580668922178016E-6</v>
-      </c>
-      <c r="G143" t="n">
-        <v>9.69386444586002E-7</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" t="s">
-        <v>469</v>
-      </c>
-      <c r="C144" t="s">
-        <v>677</v>
-      </c>
-      <c r="D144" t="s">
-        <v>809</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.634725584947186E-7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1.580668922178016E-6</v>
-      </c>
-      <c r="G144" t="n">
-        <v>9.69386444586002E-7</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I144" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" t="s">
-        <v>470</v>
-      </c>
-      <c r="C145" t="s">
-        <v>667</v>
-      </c>
-      <c r="D145" t="s">
-        <v>810</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.8040193633587406E-7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.7374424582824062E-6</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1.065531904673876E-6</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I145" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" t="s">
-        <v>471</v>
-      </c>
-      <c r="C146" t="s">
-        <v>681</v>
-      </c>
-      <c r="D146" t="s">
-        <v>811</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.0391901218432502E-7</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1.9312880870281945E-6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1.1844127925131165E-6</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I146" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" t="s">
-        <v>472</v>
-      </c>
-      <c r="C147" t="s">
-        <v>678</v>
-      </c>
-      <c r="D147" t="s">
-        <v>812</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.634749676186253E-7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2.4221732818575893E-6</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1.4854609418370664E-6</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I147" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B148" t="s">
-        <v>473</v>
-      </c>
-      <c r="C148" t="s">
-        <v>678</v>
-      </c>
-      <c r="D148" t="s">
-        <v>813</v>
-      </c>
-      <c r="E148" t="n">
-        <v>4.2764969719346307E-7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3.7605283155381697E-6</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2.306242074109675E-6</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I148" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" t="s">
-        <v>474</v>
-      </c>
-      <c r="C149" t="s">
-        <v>677</v>
-      </c>
-      <c r="D149" t="s">
-        <v>814</v>
-      </c>
-      <c r="E149" t="n">
-        <v>4.4338316697174673E-7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3.884804860073752E-6</v>
-      </c>
-      <c r="G149" t="n">
-        <v>2.382457906509785E-6</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I149" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" t="s">
-        <v>475</v>
-      </c>
-      <c r="C150" t="s">
-        <v>679</v>
-      </c>
-      <c r="D150" t="s">
-        <v>815</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.868538644593942E-7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5.6894004404196235E-6</v>
-      </c>
-      <c r="G150" t="n">
-        <v>3.489173214821568E-6</v>
-      </c>
-      <c r="H150" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" t="s">
-        <v>476</v>
-      </c>
-      <c r="C151" t="s">
-        <v>676</v>
-      </c>
-      <c r="D151" t="s">
-        <v>816</v>
-      </c>
-      <c r="E151" t="n">
-        <v>7.148412628158417E-7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>5.8810838808611795E-6</v>
-      </c>
-      <c r="G151" t="n">
-        <v>3.606728084287601E-6</v>
-      </c>
-      <c r="H151" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" t="s">
-        <v>477</v>
-      </c>
-      <c r="C152" t="s">
-        <v>666</v>
-      </c>
-      <c r="D152" t="s">
-        <v>817</v>
-      </c>
-      <c r="E152" t="n">
-        <v>7.592252635051272E-7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>6.204174122986342E-6</v>
-      </c>
-      <c r="G152" t="n">
-        <v>3.80487160232589E-6</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I152" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>160</v>
-      </c>
-      <c r="B153" t="s">
-        <v>478</v>
-      </c>
-      <c r="C153" t="s">
-        <v>679</v>
-      </c>
-      <c r="D153" t="s">
-        <v>818</v>
-      </c>
-      <c r="E153" t="n">
-        <v>8.45663573754158E-7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6.841418311671138E-6</v>
-      </c>
-      <c r="G153" t="n">
-        <v>4.19567822206449E-6</v>
-      </c>
-      <c r="H153" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>161</v>
-      </c>
-      <c r="B154" t="s">
-        <v>479</v>
-      </c>
-      <c r="C154" t="s">
-        <v>676</v>
-      </c>
-      <c r="D154" t="s">
-        <v>794</v>
-      </c>
-      <c r="E154" t="n">
-        <v>8.607877105611688E-7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6.91765487924489E-6</v>
-      </c>
-      <c r="G154" t="n">
-        <v>4.24243228558206E-6</v>
-      </c>
-      <c r="H154" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I154" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" t="s">
-        <v>480</v>
-      </c>
-      <c r="C155" t="s">
-        <v>682</v>
-      </c>
-      <c r="D155" t="s">
-        <v>796</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.0194054468966693E-6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7.926855706278117E-6</v>
-      </c>
-      <c r="G155" t="n">
-        <v>4.861351015408782E-6</v>
-      </c>
-      <c r="H155" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" t="s">
-        <v>481</v>
-      </c>
-      <c r="C156" t="s">
-        <v>676</v>
-      </c>
-      <c r="D156" t="s">
-        <v>780</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.0309346035228415E-6</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7.926855706278117E-6</v>
-      </c>
-      <c r="G156" t="n">
-        <v>4.861351015408782E-6</v>
-      </c>
-      <c r="H156" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I156" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" t="s">
-        <v>482</v>
-      </c>
-      <c r="C157" t="s">
-        <v>679</v>
-      </c>
-      <c r="D157" t="s">
-        <v>800</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.0320916370761784E-6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>7.926855706278117E-6</v>
-      </c>
-      <c r="G157" t="n">
-        <v>4.861351015408782E-6</v>
-      </c>
-      <c r="H157" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" t="s">
-        <v>483</v>
-      </c>
-      <c r="C158" t="s">
-        <v>675</v>
-      </c>
-      <c r="D158" t="s">
-        <v>819</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.5482960782155678E-6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1.1491481901618296E-5</v>
-      </c>
-      <c r="G158" t="n">
-        <v>7.047451004657373E-6</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I158" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" t="s">
-        <v>484</v>
-      </c>
-      <c r="C159" t="s">
-        <v>679</v>
-      </c>
-      <c r="D159" t="s">
-        <v>820</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.791666101138182E-6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1.3058179061448551E-5</v>
-      </c>
-      <c r="G159" t="n">
-        <v>8.008268901562792E-6</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" t="s">
-        <v>485</v>
-      </c>
-      <c r="C160" t="s">
-        <v>679</v>
-      </c>
-      <c r="D160" t="s">
-        <v>820</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.791666101138182E-6</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1.3058179061448551E-5</v>
-      </c>
-      <c r="G160" t="n">
-        <v>8.008268901562792E-6</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" t="s">
-        <v>486</v>
-      </c>
-      <c r="C161" t="s">
-        <v>680</v>
-      </c>
-      <c r="D161" t="s">
-        <v>821</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.9082821088130094E-6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2.0282760569221766E-5</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1.2438931947554735E-5</v>
-      </c>
-      <c r="H161" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>169</v>
-      </c>
-      <c r="B162" t="s">
-        <v>487</v>
-      </c>
-      <c r="C162" t="s">
-        <v>681</v>
-      </c>
-      <c r="D162" t="s">
-        <v>822</v>
-      </c>
-      <c r="E162" t="n">
-        <v>3.1443401949809815E-6</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2.1741634339654823E-5</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.3333624338590817E-5</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I162" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" t="s">
-        <v>682</v>
-      </c>
-      <c r="D163" t="s">
-        <v>806</v>
-      </c>
-      <c r="E163" t="n">
-        <v>3.6682821867478196E-6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2.500820468324988E-5</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1.5336933802665337E-5</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" t="s">
-        <v>489</v>
-      </c>
-      <c r="C164" t="s">
-        <v>678</v>
-      </c>
-      <c r="D164" t="s">
-        <v>823</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4.483758494310519E-6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3.031220575401568E-5</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1.858975080180347E-5</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I164" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>172</v>
-      </c>
-      <c r="B165" t="s">
-        <v>490</v>
-      </c>
-      <c r="C165" t="s">
-        <v>680</v>
-      </c>
-      <c r="D165" t="s">
-        <v>824</v>
-      </c>
-      <c r="E165" t="n">
-        <v>4.745155072185231E-6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3.181268073466165E-5</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1.9509956220073116E-5</v>
-      </c>
-      <c r="H165" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>173</v>
-      </c>
-      <c r="B166" t="s">
-        <v>491</v>
-      </c>
-      <c r="C166" t="s">
-        <v>682</v>
-      </c>
-      <c r="D166" t="s">
-        <v>825</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4.771246719166395E-6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3.181268073466165E-5</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1.9509956220073116E-5</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167" t="s">
-        <v>492</v>
-      </c>
-      <c r="C167" t="s">
-        <v>682</v>
-      </c>
-      <c r="D167" t="s">
-        <v>825</v>
-      </c>
-      <c r="E167" t="n">
-        <v>4.771246719166395E-6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3.181268073466165E-5</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1.9509956220073116E-5</v>
-      </c>
-      <c r="H167" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>175</v>
-      </c>
-      <c r="B168" t="s">
-        <v>493</v>
-      </c>
-      <c r="C168" t="s">
-        <v>679</v>
-      </c>
-      <c r="D168" t="s">
-        <v>826</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5.270851544572919E-6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3.5047552599119104E-5</v>
-      </c>
-      <c r="G168" t="n">
-        <v>2.1493825765035637E-5</v>
-      </c>
-      <c r="H168" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>176</v>
-      </c>
-      <c r="B169" t="s">
-        <v>494</v>
-      </c>
-      <c r="C169" t="s">
-        <v>680</v>
-      </c>
-      <c r="D169" t="s">
-        <v>827</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6.238002862978689E-6</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4.0697938033465804E-5</v>
-      </c>
-      <c r="G169" t="n">
-        <v>2.495907200976759E-5</v>
-      </c>
-      <c r="H169" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I169" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>177</v>
-      </c>
-      <c r="B170" t="s">
-        <v>495</v>
-      </c>
-      <c r="C170" t="s">
-        <v>679</v>
-      </c>
-      <c r="D170" t="s">
-        <v>797</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.862253110076576E-6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>5.7509861759775004E-5</v>
-      </c>
-      <c r="G170" t="n">
-        <v>3.526942273472637E-5</v>
-      </c>
-      <c r="H170" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>178</v>
-      </c>
-      <c r="B171" t="s">
-        <v>496</v>
-      </c>
-      <c r="C171" t="s">
-        <v>675</v>
-      </c>
-      <c r="D171" t="s">
-        <v>828</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9.233341277126186E-6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5.975818474556068E-5</v>
-      </c>
-      <c r="G171" t="n">
-        <v>3.6648265448018044E-5</v>
-      </c>
-      <c r="H171" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I171" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>179</v>
-      </c>
-      <c r="B172" t="s">
-        <v>497</v>
-      </c>
-      <c r="C172" t="s">
-        <v>675</v>
-      </c>
-      <c r="D172" t="s">
-        <v>829</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.2117408110996145E-5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>7.658580595153033E-5</v>
-      </c>
-      <c r="G172" t="n">
-        <v>4.6968243061810725E-5</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>180</v>
-      </c>
-      <c r="B173" t="s">
-        <v>498</v>
-      </c>
-      <c r="C173" t="s">
-        <v>679</v>
-      </c>
-      <c r="D173" t="s">
-        <v>830</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.2630460643760631E-5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7.962111164261573E-5</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4.882972344573488E-5</v>
-      </c>
-      <c r="H173" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" t="s">
-        <v>499</v>
-      </c>
-      <c r="C174" t="s">
-        <v>674</v>
-      </c>
-      <c r="D174" t="s">
-        <v>831</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.4091352502990584E-5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8.860029151491748E-5</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5.433643970337793E-5</v>
-      </c>
-      <c r="H174" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I174" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>182</v>
-      </c>
-      <c r="B175" t="s">
-        <v>500</v>
-      </c>
-      <c r="C175" t="s">
-        <v>675</v>
-      </c>
-      <c r="D175" t="s">
-        <v>832</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.575468536219457E-5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>9.804261890781083E-5</v>
-      </c>
-      <c r="G175" t="n">
-        <v>6.012719325814609E-5</v>
-      </c>
-      <c r="H175" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I175" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>183</v>
-      </c>
-      <c r="B176" t="s">
-        <v>501</v>
-      </c>
-      <c r="C176" t="s">
-        <v>682</v>
-      </c>
-      <c r="D176" t="s">
-        <v>815</v>
-      </c>
-      <c r="E176" t="n">
-        <v>2.4292428310101328E-5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.4776371806670657E-4</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9.061995417618595E-5</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>184</v>
-      </c>
-      <c r="B177" t="s">
-        <v>502</v>
-      </c>
-      <c r="C177" t="s">
-        <v>677</v>
-      </c>
-      <c r="D177" t="s">
-        <v>833</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.6259222498789918E-5</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1.5747105917854044E-4</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9.657323430635882E-5</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I177" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>185</v>
-      </c>
-      <c r="B178" t="s">
-        <v>503</v>
-      </c>
-      <c r="C178" t="s">
-        <v>679</v>
-      </c>
-      <c r="D178" t="s">
-        <v>834</v>
-      </c>
-      <c r="E178" t="n">
-        <v>2.6277618033501803E-5</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1.5747105917854044E-4</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9.657323430635882E-5</v>
-      </c>
-      <c r="H178" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I178" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>186</v>
-      </c>
-      <c r="B179" t="s">
-        <v>504</v>
-      </c>
-      <c r="C179" t="s">
-        <v>682</v>
-      </c>
-      <c r="D179" t="s">
-        <v>803</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.8690931207549205E-5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2.2411190940506426E-4</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1.3744247387884582E-4</v>
-      </c>
-      <c r="H179" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" t="s">
-        <v>505</v>
-      </c>
-      <c r="C180" t="s">
-        <v>674</v>
-      </c>
-      <c r="D180" t="s">
-        <v>786</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.2906622486237604E-5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2.467639165263001E-4</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.513344080706909E-4</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I180" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" t="s">
-        <v>506</v>
-      </c>
-      <c r="C181" t="s">
-        <v>683</v>
-      </c>
-      <c r="D181" t="s">
-        <v>835</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.0411671787301076E-5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2.8321557274949005E-4</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.7368933700595454E-4</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>189</v>
-      </c>
-      <c r="B182" t="s">
-        <v>507</v>
-      </c>
-      <c r="C182" t="s">
-        <v>679</v>
-      </c>
-      <c r="D182" t="s">
-        <v>836</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.357088853724092E-5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2.9888861259743386E-4</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1.8330123748737728E-4</v>
-      </c>
-      <c r="H182" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" t="s">
-        <v>508</v>
-      </c>
-      <c r="C183" t="s">
-        <v>679</v>
-      </c>
-      <c r="D183" t="s">
-        <v>837</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.810028755704559E-5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3.648551830043038E-4</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2.2375695737344596E-4</v>
-      </c>
-      <c r="H183" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I183" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>191</v>
-      </c>
-      <c r="B184" t="s">
-        <v>509</v>
-      </c>
-      <c r="C184" t="s">
-        <v>680</v>
-      </c>
-      <c r="D184" t="s">
-        <v>804</v>
-      </c>
-      <c r="E184" t="n">
-        <v>7.133070103842074E-5</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3.813207300005444E-4</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2.3385488353426138E-4</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I184" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" t="s">
-        <v>510</v>
-      </c>
-      <c r="C185" t="s">
-        <v>676</v>
-      </c>
-      <c r="D185" t="s">
-        <v>838</v>
-      </c>
-      <c r="E185" t="n">
-        <v>7.93581300734676E-5</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4.2330149821605685E-4</v>
-      </c>
-      <c r="G185" t="n">
-        <v>2.5960068461280093E-4</v>
-      </c>
-      <c r="H185" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" t="s">
-        <v>511</v>
-      </c>
-      <c r="C186" t="s">
-        <v>679</v>
-      </c>
-      <c r="D186" t="s">
-        <v>827</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9.198867516417344E-5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4.8534024918141076E-4</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2.976475667783553E-4</v>
-      </c>
-      <c r="H186" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I186" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>194</v>
-      </c>
-      <c r="B187" t="s">
-        <v>512</v>
-      </c>
-      <c r="C187" t="s">
-        <v>675</v>
-      </c>
-      <c r="D187" t="s">
-        <v>839</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.1836240905287042E-4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6.14097812119794E-4</v>
-      </c>
-      <c r="G187" t="n">
-        <v>3.766115005908915E-4</v>
-      </c>
-      <c r="H187" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I187" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>195</v>
-      </c>
-      <c r="B188" t="s">
-        <v>513</v>
-      </c>
-      <c r="C188" t="s">
-        <v>680</v>
-      </c>
-      <c r="D188" t="s">
-        <v>840</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.204225244379822E-4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6.192064974808957E-4</v>
-      </c>
-      <c r="G188" t="n">
-        <v>3.7974453513672356E-4</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I188" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>196</v>
-      </c>
-      <c r="B189" t="s">
-        <v>514</v>
-      </c>
-      <c r="C189" t="s">
-        <v>679</v>
-      </c>
-      <c r="D189" t="s">
-        <v>801</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.2184673356656803E-4</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6.238861231351489E-4</v>
-      </c>
-      <c r="G189" t="n">
-        <v>3.826144376263096E-4</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>197</v>
-      </c>
-      <c r="B190" t="s">
-        <v>515</v>
-      </c>
-      <c r="C190" t="s">
-        <v>679</v>
-      </c>
-      <c r="D190" t="s">
-        <v>802</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.303535128452899E-4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6.632452320241481E-4</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4.0675243774299894E-4</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I190" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>198</v>
-      </c>
-      <c r="B191" t="s">
-        <v>516</v>
-      </c>
-      <c r="C191" t="s">
-        <v>683</v>
-      </c>
-      <c r="D191" t="s">
-        <v>841</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.36225474262303E-4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>6.788895811798961E-4</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4.1634674290910294E-4</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>199</v>
-      </c>
-      <c r="B192" t="s">
-        <v>517</v>
-      </c>
-      <c r="C192" t="s">
-        <v>683</v>
-      </c>
-      <c r="D192" t="s">
-        <v>841</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.36225474262303E-4</v>
-      </c>
-      <c r="F192" t="n">
-        <v>6.788895811798961E-4</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4.1634674290910294E-4</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" t="s">
-        <v>518</v>
-      </c>
-      <c r="C193" t="s">
-        <v>675</v>
-      </c>
-      <c r="D193" t="s">
-        <v>842</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.4343843684250885E-4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>7.133710783130511E-4</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4.3749342039540014E-4</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I193" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>201</v>
-      </c>
-      <c r="B194" t="s">
-        <v>519</v>
-      </c>
-      <c r="C194" t="s">
-        <v>681</v>
-      </c>
-      <c r="D194" t="s">
-        <v>843</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.6396536729241279E-4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>8.071885322894236E-4</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.950294210557739E-4</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>202</v>
-      </c>
-      <c r="B195" t="s">
-        <v>520</v>
-      </c>
-      <c r="C195" t="s">
-        <v>683</v>
-      </c>
-      <c r="D195" t="s">
-        <v>806</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.6681559551050856E-4</v>
-      </c>
-      <c r="F195" t="n">
-        <v>8.146105639919603E-4</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4.995811755837322E-4</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>203</v>
-      </c>
-      <c r="B196" t="s">
-        <v>521</v>
-      </c>
-      <c r="C196" t="s">
-        <v>683</v>
-      </c>
-      <c r="D196" t="s">
-        <v>825</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.0153938453722423E-4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>9.685863094491945E-4</v>
-      </c>
-      <c r="G196" t="n">
-        <v>5.940108175833978E-4</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" t="s">
-        <v>522</v>
-      </c>
-      <c r="C197" t="s">
-        <v>682</v>
-      </c>
-      <c r="D197" t="s">
-        <v>830</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.3544736961328747E-4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.0011293098143309263</v>
-      </c>
-      <c r="G197" t="n">
-        <v>6.925786990496953E-4</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I197" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>205</v>
-      </c>
-      <c r="B198" t="s">
-        <v>523</v>
-      </c>
-      <c r="C198" t="s">
-        <v>678</v>
-      </c>
-      <c r="D198" t="s">
-        <v>844</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.3812740755187938E-4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0011361899022327307</v>
-      </c>
-      <c r="G198" t="n">
-        <v>6.96798092406515E-4</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I198" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" t="s">
-        <v>524</v>
-      </c>
-      <c r="C199" t="s">
-        <v>676</v>
-      </c>
-      <c r="D199" t="s">
-        <v>845</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.3885221417124352E-4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.0011361899022327307</v>
-      </c>
-      <c r="G199" t="n">
-        <v>6.96798092406515E-4</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I199" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>207</v>
-      </c>
-      <c r="B200" t="s">
-        <v>525</v>
-      </c>
-      <c r="C200" t="s">
-        <v>683</v>
-      </c>
-      <c r="D200" t="s">
-        <v>846</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.406269508642866E-4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.0011361899022327307</v>
-      </c>
-      <c r="G200" t="n">
-        <v>6.96798092406515E-4</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>208</v>
-      </c>
-      <c r="B201" t="s">
-        <v>526</v>
-      </c>
-      <c r="C201" t="s">
-        <v>682</v>
-      </c>
-      <c r="D201" t="s">
-        <v>847</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.57039260275515E-4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.001204331679529792</v>
-      </c>
-      <c r="G201" t="n">
-        <v>7.385878146531895E-4</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I201" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>209</v>
-      </c>
-      <c r="B202" t="s">
-        <v>527</v>
-      </c>
-      <c r="C202" t="s">
-        <v>676</v>
-      </c>
-      <c r="D202" t="s">
-        <v>848</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.644449808541667E-4</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.0012342460933328124</v>
-      </c>
-      <c r="G202" t="n">
-        <v>7.569336091655703E-4</v>
-      </c>
-      <c r="H202" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I202" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>210</v>
-      </c>
-      <c r="B203" t="s">
-        <v>528</v>
-      </c>
-      <c r="C203" t="s">
-        <v>676</v>
-      </c>
-      <c r="D203" t="s">
-        <v>848</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.644449808541667E-4</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.0012342460933328124</v>
-      </c>
-      <c r="G203" t="n">
-        <v>7.569336091655703E-4</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I203" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>211</v>
-      </c>
-      <c r="B204" t="s">
-        <v>529</v>
-      </c>
-      <c r="C204" t="s">
-        <v>682</v>
-      </c>
-      <c r="D204" t="s">
-        <v>849</v>
-      </c>
-      <c r="E204" t="n">
-        <v>3.303389543471964E-4</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.0015181874648887803</v>
-      </c>
-      <c r="G204" t="n">
-        <v>9.310680612203654E-4</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I204" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>212</v>
-      </c>
-      <c r="B205" t="s">
-        <v>530</v>
-      </c>
-      <c r="C205" t="s">
-        <v>683</v>
-      </c>
-      <c r="D205" t="s">
-        <v>850</v>
-      </c>
-      <c r="E205" t="n">
-        <v>3.3278769316886326E-4</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.0015181874648887803</v>
-      </c>
-      <c r="G205" t="n">
-        <v>9.310680612203654E-4</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>213</v>
-      </c>
-      <c r="B206" t="s">
-        <v>531</v>
-      </c>
-      <c r="C206" t="s">
-        <v>679</v>
-      </c>
-      <c r="D206" t="s">
-        <v>851</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3.385996188475852E-4</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.0015389162452117777</v>
-      </c>
-      <c r="G206" t="n">
-        <v>9.437805264153076E-4</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>214</v>
-      </c>
-      <c r="B207" t="s">
-        <v>532</v>
-      </c>
-      <c r="C207" t="s">
-        <v>677</v>
-      </c>
-      <c r="D207" t="s">
-        <v>852</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3.7239356672972234E-4</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.0016799241383885428</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.0010302572947678095</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I207" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>215</v>
-      </c>
-      <c r="B208" t="s">
-        <v>533</v>
-      </c>
-      <c r="C208" t="s">
-        <v>676</v>
-      </c>
-      <c r="D208" t="s">
-        <v>853</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.8977650416180935E-4</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.0017357570194508462</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.0010644982653496833</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I208" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>216</v>
-      </c>
-      <c r="B209" t="s">
-        <v>534</v>
-      </c>
-      <c r="C209" t="s">
-        <v>677</v>
-      </c>
-      <c r="D209" t="s">
-        <v>854</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.6578961253665235E-4</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.0020332219237885886</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.001246926376612697</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I209" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>217</v>
-      </c>
-      <c r="B210" t="s">
-        <v>535</v>
-      </c>
-      <c r="C210" t="s">
-        <v>677</v>
-      </c>
-      <c r="D210" t="s">
-        <v>855</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.972922929788606E-4</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.0021629541130102053</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.0013264880254142783</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I210" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>218</v>
-      </c>
-      <c r="B211" t="s">
-        <v>536</v>
-      </c>
-      <c r="C211" t="s">
-        <v>677</v>
-      </c>
-      <c r="D211" t="s">
-        <v>856</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.655590779713406E-4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.0024510926468507923</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.0015031964967133003</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I211" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>219</v>
-      </c>
-      <c r="B212" t="s">
-        <v>537</v>
-      </c>
-      <c r="C212" t="s">
-        <v>682</v>
-      </c>
-      <c r="D212" t="s">
-        <v>857</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.974696722833358E-4</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.0025710264089213756</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.0015767490044954029</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I212" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>220</v>
-      </c>
-      <c r="B213" t="s">
-        <v>538</v>
-      </c>
-      <c r="C213" t="s">
-        <v>678</v>
-      </c>
-      <c r="D213" t="s">
-        <v>858</v>
-      </c>
-      <c r="E213" t="n">
-        <v>6.264075865961354E-4</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.002676569036388769</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.0016414757736229345</v>
-      </c>
-      <c r="H213" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I213" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>221</v>
-      </c>
-      <c r="B214" t="s">
-        <v>539</v>
-      </c>
-      <c r="C214" t="s">
-        <v>683</v>
-      </c>
-      <c r="D214" t="s">
-        <v>815</v>
-      </c>
-      <c r="E214" t="n">
-        <v>6.546713438170355E-4</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.002772927314910899</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.0017005700012074738</v>
-      </c>
-      <c r="H214" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>222</v>
-      </c>
-      <c r="B215" t="s">
-        <v>540</v>
-      </c>
-      <c r="C215" t="s">
-        <v>682</v>
-      </c>
-      <c r="D215" t="s">
-        <v>821</v>
-      </c>
-      <c r="E215" t="n">
-        <v>6.828342988014234E-4</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.0028771507694289144</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.0017644877531162513</v>
-      </c>
-      <c r="H215" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>223</v>
-      </c>
-      <c r="B216" t="s">
-        <v>541</v>
-      </c>
-      <c r="C216" t="s">
-        <v>682</v>
-      </c>
-      <c r="D216" t="s">
-        <v>859</v>
-      </c>
-      <c r="E216" t="n">
-        <v>7.764904291996105E-4</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.003232491032019648</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.0019824094373715796</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I216" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>224</v>
-      </c>
-      <c r="B217" t="s">
-        <v>542</v>
-      </c>
-      <c r="C217" t="s">
-        <v>676</v>
-      </c>
-      <c r="D217" t="s">
-        <v>773</v>
-      </c>
-      <c r="E217" t="n">
-        <v>7.812811967524447E-4</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.0032468655214352455</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.0019912249679307084</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I217" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>225</v>
-      </c>
-      <c r="B218" t="s">
-        <v>543</v>
-      </c>
-      <c r="C218" t="s">
-        <v>681</v>
-      </c>
-      <c r="D218" t="s">
-        <v>860</v>
-      </c>
-      <c r="E218" t="n">
-        <v>8.081621425649357E-4</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.0033528367863335027</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.0020562146101427243</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I218" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>226</v>
-      </c>
-      <c r="B219" t="s">
-        <v>544</v>
-      </c>
-      <c r="C219" t="s">
-        <v>682</v>
-      </c>
-      <c r="D219" t="s">
-        <v>861</v>
-      </c>
-      <c r="E219" t="n">
-        <v>8.265629833246402E-4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.003405888557774027</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.0020887499927102877</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>227</v>
-      </c>
-      <c r="B220" t="s">
-        <v>545</v>
-      </c>
-      <c r="C220" t="s">
-        <v>682</v>
-      </c>
-      <c r="D220" t="s">
-        <v>837</v>
-      </c>
-      <c r="E220" t="n">
-        <v>8.788707554465425E-4</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.0035849064259979133</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.002198537369661939</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I220" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>228</v>
-      </c>
-      <c r="B221" t="s">
-        <v>546</v>
-      </c>
-      <c r="C221" t="s">
-        <v>682</v>
-      </c>
-      <c r="D221" t="s">
-        <v>837</v>
-      </c>
-      <c r="E221" t="n">
-        <v>8.788707554465425E-4</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.0035849064259979133</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.002198537369661939</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I221" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>229</v>
-      </c>
-      <c r="B222" t="s">
-        <v>547</v>
-      </c>
-      <c r="C222" t="s">
-        <v>678</v>
-      </c>
-      <c r="D222" t="s">
-        <v>862</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.0010112209869357297</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.004076799560287402</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.00250020366414954</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I222" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>230</v>
-      </c>
-      <c r="B223" t="s">
-        <v>548</v>
-      </c>
-      <c r="C223" t="s">
-        <v>683</v>
-      </c>
-      <c r="D223" t="s">
-        <v>805</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.001019302931669332</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.0040822577807945026</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.002503551060240465</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224" t="s">
-        <v>549</v>
-      </c>
-      <c r="C224" t="s">
-        <v>678</v>
-      </c>
-      <c r="D224" t="s">
-        <v>863</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.0010334210083799151</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.004125185505490221</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.00252987760707964</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I224" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" t="s">
-        <v>550</v>
-      </c>
-      <c r="C225" t="s">
-        <v>682</v>
-      </c>
-      <c r="D225" t="s">
-        <v>864</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.0011758357192713242</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.00464780666233144</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.002850388662865854</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>233</v>
-      </c>
-      <c r="B226" t="s">
-        <v>551</v>
-      </c>
-      <c r="C226" t="s">
-        <v>680</v>
-      </c>
-      <c r="D226" t="s">
-        <v>865</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.0013560107759732424</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.0052995783466780345</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.0032501046482348757</v>
-      </c>
-      <c r="H226" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I226" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" t="s">
-        <v>552</v>
-      </c>
-      <c r="C227" t="s">
-        <v>681</v>
-      </c>
-      <c r="D227" t="s">
-        <v>866</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.001385717119901996</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.0053870607788353625</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.0033037555315304596</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228" t="s">
-        <v>553</v>
-      </c>
-      <c r="C228" t="s">
-        <v>680</v>
-      </c>
-      <c r="D228" t="s">
-        <v>867</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.0014368869254936705</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.005561921161360667</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.0034109932219391426</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I228" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" t="s">
-        <v>554</v>
-      </c>
-      <c r="C229" t="s">
-        <v>676</v>
-      </c>
-      <c r="D229" t="s">
-        <v>868</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.001467930050649868</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.005664016268564754</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.0034736057093446805</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I229" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" t="s">
-        <v>555</v>
-      </c>
-      <c r="C230" t="s">
-        <v>682</v>
-      </c>
-      <c r="D230" t="s">
-        <v>869</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.0017006279070966043</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.006463279181013279</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.003963774537311724</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>238</v>
-      </c>
-      <c r="B231" t="s">
-        <v>556</v>
-      </c>
-      <c r="C231" t="s">
-        <v>678</v>
-      </c>
-      <c r="D231" t="s">
-        <v>870</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.0017278669035144132</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.006542173127659096</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.0040121583078567705</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I231" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" t="s">
-        <v>557</v>
-      </c>
-      <c r="C232" t="s">
-        <v>683</v>
-      </c>
-      <c r="D232" t="s">
-        <v>871</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.0017714326646818862</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.006675880554631891</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.004094157874894063</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>240</v>
-      </c>
-      <c r="B233" t="s">
-        <v>558</v>
-      </c>
-      <c r="C233" t="s">
-        <v>678</v>
-      </c>
-      <c r="D233" t="s">
-        <v>872</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.0019030576179619302</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.007160807502005588</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.004391551973558824</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I233" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" t="s">
-        <v>559</v>
-      </c>
-      <c r="C234" t="s">
-        <v>684</v>
-      </c>
-      <c r="D234" t="s">
-        <v>873</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.00203302279758519</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.007397520734241763</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.0045367225373399486</v>
-      </c>
-      <c r="H234" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I234" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>242</v>
-      </c>
-      <c r="B235" t="s">
-        <v>560</v>
-      </c>
-      <c r="C235" t="s">
-        <v>684</v>
-      </c>
-      <c r="D235" t="s">
-        <v>873</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.00203302279758519</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.007397520734241763</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.0045367225373399486</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I235" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>243</v>
-      </c>
-      <c r="B236" t="s">
-        <v>561</v>
-      </c>
-      <c r="C236" t="s">
-        <v>684</v>
-      </c>
-      <c r="D236" t="s">
-        <v>873</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.00203302279758519</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.007397520734241763</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.0045367225373399486</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I236" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>244</v>
-      </c>
-      <c r="B237" t="s">
-        <v>562</v>
-      </c>
-      <c r="C237" t="s">
-        <v>684</v>
-      </c>
-      <c r="D237" t="s">
-        <v>873</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.00203302279758519</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.007397520734241763</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.0045367225373399486</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I237" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>245</v>
-      </c>
-      <c r="B238" t="s">
-        <v>563</v>
-      </c>
-      <c r="C238" t="s">
-        <v>684</v>
-      </c>
-      <c r="D238" t="s">
-        <v>835</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.0024736030477625006</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.008802690024808782</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.005398479255342146</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I238" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>246</v>
-      </c>
-      <c r="B239" t="s">
-        <v>564</v>
-      </c>
-      <c r="C239" t="s">
-        <v>680</v>
-      </c>
-      <c r="D239" t="s">
-        <v>874</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.002589600538818345</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.009175124828776823</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.005626884612968329</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I239" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>247</v>
-      </c>
-      <c r="B240" t="s">
-        <v>565</v>
-      </c>
-      <c r="C240" t="s">
-        <v>676</v>
-      </c>
-      <c r="D240" t="s">
-        <v>875</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0.002717875927307489</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0.009559833153007645</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.005862817027021799</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I240" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>248</v>
-      </c>
-      <c r="B241" t="s">
-        <v>566</v>
-      </c>
-      <c r="C241" t="s">
-        <v>679</v>
-      </c>
-      <c r="D241" t="s">
-        <v>876</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0.0029431061444216695</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0.010172567407268185</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.006238592290190278</v>
-      </c>
-      <c r="H241" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I241" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>249</v>
-      </c>
-      <c r="B242" t="s">
-        <v>567</v>
-      </c>
-      <c r="C242" t="s">
-        <v>684</v>
-      </c>
-      <c r="D242" t="s">
-        <v>796</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0.0029549485052015123</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0.010172567407268185</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.006238592290190278</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>250</v>
-      </c>
-      <c r="B243" t="s">
-        <v>568</v>
-      </c>
-      <c r="C243" t="s">
-        <v>680</v>
-      </c>
-      <c r="D243" t="s">
-        <v>877</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0.0032980885530370144</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0.011258032233784576</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.006904281906868517</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I243" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>251</v>
-      </c>
-      <c r="B244" t="s">
-        <v>569</v>
-      </c>
-      <c r="C244" t="s">
-        <v>683</v>
-      </c>
-      <c r="D244" t="s">
-        <v>830</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.0034261246840521964</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0.011621802349982878</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.007127373418721746</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>252</v>
-      </c>
-      <c r="B245" t="s">
-        <v>570</v>
-      </c>
-      <c r="C245" t="s">
-        <v>678</v>
-      </c>
-      <c r="D245" t="s">
-        <v>878</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0.0034390657766907398</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0.011621802349982878</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.007127373418721746</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I245" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>253</v>
-      </c>
-      <c r="B246" t="s">
-        <v>571</v>
-      </c>
-      <c r="C246" t="s">
-        <v>682</v>
-      </c>
-      <c r="D246" t="s">
-        <v>879</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0.0034692119936004092</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0.011621802349982878</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.007127373418721746</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I246" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>254</v>
-      </c>
-      <c r="B247" t="s">
-        <v>572</v>
-      </c>
-      <c r="C247" t="s">
-        <v>684</v>
-      </c>
-      <c r="D247" t="s">
-        <v>880</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.0034764847573496376</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.011621802349982878</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.007127373418721746</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I247" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>255</v>
-      </c>
-      <c r="B248" t="s">
-        <v>573</v>
-      </c>
-      <c r="C248" t="s">
-        <v>683</v>
-      </c>
-      <c r="D248" t="s">
-        <v>881</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.0038877765505035905</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0.012943256087890554</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.00793778939053076</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>256</v>
-      </c>
-      <c r="B249" t="s">
-        <v>574</v>
-      </c>
-      <c r="C249" t="s">
-        <v>684</v>
-      </c>
-      <c r="D249" t="s">
-        <v>882</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.004037643285154087</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0.013224507763925733</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.008110274316653</v>
-      </c>
-      <c r="H249" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I249" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>257</v>
-      </c>
-      <c r="B250" t="s">
-        <v>575</v>
-      </c>
-      <c r="C250" t="s">
-        <v>684</v>
-      </c>
-      <c r="D250" t="s">
-        <v>882</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0.004037643285154087</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0.013224507763925733</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.008110274316653</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>258</v>
-      </c>
-      <c r="B251" t="s">
-        <v>576</v>
-      </c>
-      <c r="C251" t="s">
-        <v>684</v>
-      </c>
-      <c r="D251" t="s">
-        <v>882</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0.004037643285154087</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0.013224507763925733</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.008110274316653</v>
-      </c>
-      <c r="H251" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>259</v>
-      </c>
-      <c r="B252" t="s">
-        <v>577</v>
-      </c>
-      <c r="C252" t="s">
-        <v>683</v>
-      </c>
-      <c r="D252" t="s">
-        <v>883</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0.004132095377766814</v>
-      </c>
-      <c r="F252" t="n">
-        <v>0.01351562733401625</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.008288810986185665</v>
-      </c>
-      <c r="H252" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>260</v>
-      </c>
-      <c r="B253" t="s">
-        <v>578</v>
-      </c>
-      <c r="C253" t="s">
-        <v>684</v>
-      </c>
-      <c r="D253" t="s">
-        <v>841</v>
-      </c>
-      <c r="E253" t="n">
-        <v>0.0046378614099066694</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0.015008119522457983</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.009204120748923553</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>261</v>
-      </c>
-      <c r="B254" t="s">
-        <v>579</v>
-      </c>
-      <c r="C254" t="s">
-        <v>684</v>
-      </c>
-      <c r="D254" t="s">
-        <v>841</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0.0046378614099066694</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0.015008119522457983</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.009204120748923553</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>262</v>
-      </c>
-      <c r="B255" t="s">
-        <v>580</v>
-      </c>
-      <c r="C255" t="s">
-        <v>684</v>
-      </c>
-      <c r="D255" t="s">
-        <v>841</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0.0046378614099066694</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0.015008119522457983</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.009204120748923553</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>263</v>
-      </c>
-      <c r="B256" t="s">
-        <v>581</v>
-      </c>
-      <c r="C256" t="s">
-        <v>680</v>
-      </c>
-      <c r="D256" t="s">
-        <v>884</v>
-      </c>
-      <c r="E256" t="n">
-        <v>0.004719304302443839</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0.015231052582488292</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.009340840262675796</v>
-      </c>
-      <c r="H256" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I256" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>264</v>
-      </c>
-      <c r="B257" t="s">
-        <v>582</v>
-      </c>
-      <c r="C257" t="s">
-        <v>682</v>
-      </c>
-      <c r="D257" t="s">
-        <v>813</v>
-      </c>
-      <c r="E257" t="n">
-        <v>0.004873277104363159</v>
-      </c>
-      <c r="F257" t="n">
-        <v>0.015686264631683537</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.009620010924988842</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>265</v>
-      </c>
-      <c r="B258" t="s">
-        <v>583</v>
-      </c>
-      <c r="C258" t="s">
-        <v>679</v>
-      </c>
-      <c r="D258" t="s">
-        <v>885</v>
-      </c>
-      <c r="E258" t="n">
-        <v>0.005033866040051463</v>
-      </c>
-      <c r="F258" t="n">
-        <v>0.016138960210310305</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.009897638296089507</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I258" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>266</v>
-      </c>
-      <c r="B259" t="s">
-        <v>584</v>
-      </c>
-      <c r="C259" t="s">
-        <v>684</v>
-      </c>
-      <c r="D259" t="s">
-        <v>806</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0.005276582240534694</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0.016784665833152242</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.010293634111021738</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>267</v>
-      </c>
-      <c r="B260" t="s">
-        <v>585</v>
-      </c>
-      <c r="C260" t="s">
-        <v>684</v>
-      </c>
-      <c r="D260" t="s">
-        <v>825</v>
-      </c>
-      <c r="E260" t="n">
-        <v>0.005953254621334354</v>
-      </c>
-      <c r="F260" t="n">
-        <v>0.018715737002562793</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.011477913873148046</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>268</v>
-      </c>
-      <c r="B261" t="s">
-        <v>586</v>
-      </c>
-      <c r="C261" t="s">
-        <v>684</v>
-      </c>
-      <c r="D261" t="s">
-        <v>825</v>
-      </c>
-      <c r="E261" t="n">
-        <v>0.005953254621334354</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0.018715737002562793</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.011477913873148046</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>269</v>
-      </c>
-      <c r="B262" t="s">
-        <v>587</v>
-      </c>
-      <c r="C262" t="s">
-        <v>683</v>
-      </c>
-      <c r="D262" t="s">
-        <v>857</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0.00675296244124612</v>
-      </c>
-      <c r="F262" t="n">
-        <v>0.020851704637282868</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.01278785173687159</v>
-      </c>
-      <c r="H262" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>270</v>
-      </c>
-      <c r="B263" t="s">
-        <v>588</v>
-      </c>
-      <c r="C263" t="s">
-        <v>684</v>
-      </c>
-      <c r="D263" t="s">
-        <v>886</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0.007418277776947496</v>
-      </c>
-      <c r="F263" t="n">
-        <v>0.022646742345473675</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.013888705430789489</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>271</v>
-      </c>
-      <c r="B264" t="s">
-        <v>589</v>
-      </c>
-      <c r="C264" t="s">
-        <v>684</v>
-      </c>
-      <c r="D264" t="s">
-        <v>886</v>
-      </c>
-      <c r="E264" t="n">
-        <v>0.007418277776947496</v>
-      </c>
-      <c r="F264" t="n">
-        <v>0.022646742345473675</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.013888705430789489</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>272</v>
-      </c>
-      <c r="B265" t="s">
-        <v>590</v>
-      </c>
-      <c r="C265" t="s">
-        <v>684</v>
-      </c>
-      <c r="D265" t="s">
-        <v>886</v>
-      </c>
-      <c r="E265" t="n">
-        <v>0.007418277776947496</v>
-      </c>
-      <c r="F265" t="n">
-        <v>0.022646742345473675</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.013888705430789489</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>273</v>
-      </c>
-      <c r="B266" t="s">
-        <v>591</v>
-      </c>
-      <c r="C266" t="s">
-        <v>676</v>
-      </c>
-      <c r="D266" t="s">
-        <v>887</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0.007500333512656753</v>
-      </c>
-      <c r="F266" t="n">
-        <v>0.022803694765279468</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.01398496059597301</v>
-      </c>
-      <c r="H266" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I266" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>274</v>
-      </c>
-      <c r="B267" t="s">
-        <v>592</v>
-      </c>
-      <c r="C267" t="s">
-        <v>682</v>
-      </c>
-      <c r="D267" t="s">
-        <v>888</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0.00750727322515793</v>
-      </c>
-      <c r="F267" t="n">
-        <v>0.022803694765279468</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.01398496059597301</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>275</v>
-      </c>
-      <c r="B268" t="s">
-        <v>593</v>
-      </c>
-      <c r="C268" t="s">
-        <v>682</v>
-      </c>
-      <c r="D268" t="s">
-        <v>888</v>
-      </c>
-      <c r="E268" t="n">
-        <v>0.00750727322515793</v>
-      </c>
-      <c r="F268" t="n">
-        <v>0.022803694765279468</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.01398496059597301</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I268" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>276</v>
-      </c>
-      <c r="B269" t="s">
-        <v>594</v>
-      </c>
-      <c r="C269" t="s">
-        <v>682</v>
-      </c>
-      <c r="D269" t="s">
-        <v>889</v>
-      </c>
-      <c r="E269" t="n">
-        <v>0.007981242974923307</v>
-      </c>
-      <c r="F269" t="n">
-        <v>0.024122635990210292</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.014793835703665935</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>277</v>
-      </c>
-      <c r="B270" t="s">
-        <v>595</v>
-      </c>
-      <c r="C270" t="s">
-        <v>683</v>
-      </c>
-      <c r="D270" t="s">
-        <v>890</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0.009752871512118424</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0.029078893316844493</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.017833389781631258</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>278</v>
-      </c>
-      <c r="B271" t="s">
-        <v>596</v>
-      </c>
-      <c r="C271" t="s">
-        <v>682</v>
-      </c>
-      <c r="D271" t="s">
-        <v>809</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0.009793626258152948</v>
-      </c>
-      <c r="F271" t="n">
-        <v>0.029164577826426022</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.01788593804201262</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I271" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>279</v>
-      </c>
-      <c r="B272" t="s">
-        <v>597</v>
-      </c>
-      <c r="C272" t="s">
-        <v>684</v>
-      </c>
-      <c r="D272" t="s">
-        <v>891</v>
-      </c>
-      <c r="E272" t="n">
-        <v>0.00988699431026735</v>
-      </c>
-      <c r="F272" t="n">
-        <v>0.029406538224287813</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.018034326566973728</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>280</v>
-      </c>
-      <c r="B273" t="s">
-        <v>598</v>
-      </c>
-      <c r="C273" t="s">
-        <v>684</v>
-      </c>
-      <c r="D273" t="s">
-        <v>892</v>
-      </c>
-      <c r="E273" t="n">
-        <v>0.010780116427267906</v>
-      </c>
-      <c r="F273" t="n">
-        <v>0.031867652337368095</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.019543668989238823</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>281</v>
-      </c>
-      <c r="B274" t="s">
-        <v>599</v>
-      </c>
-      <c r="C274" t="s">
-        <v>678</v>
-      </c>
-      <c r="D274" t="s">
-        <v>807</v>
-      </c>
-      <c r="E274" t="n">
-        <v>0.01239515025011863</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.03620099838392048</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.022201206477506803</v>
-      </c>
-      <c r="H274" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I274" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>282</v>
-      </c>
-      <c r="B275" t="s">
-        <v>600</v>
-      </c>
-      <c r="C275" t="s">
-        <v>682</v>
-      </c>
-      <c r="D275" t="s">
-        <v>893</v>
-      </c>
-      <c r="E275" t="n">
-        <v>0.012490063987616892</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0.03634698476971966</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.022290736436312367</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I275" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>283</v>
-      </c>
-      <c r="B276" t="s">
-        <v>601</v>
-      </c>
-      <c r="C276" t="s">
-        <v>683</v>
-      </c>
-      <c r="D276" t="s">
-        <v>802</v>
-      </c>
-      <c r="E276" t="n">
-        <v>0.012921162319728605</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0.03724425290971654</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0228410095263111</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>284</v>
-      </c>
-      <c r="B277" t="s">
-        <v>602</v>
-      </c>
-      <c r="C277" t="s">
-        <v>682</v>
-      </c>
-      <c r="D277" t="s">
-        <v>894</v>
-      </c>
-      <c r="E277" t="n">
-        <v>0.013484184085922803</v>
-      </c>
-      <c r="F277" t="n">
-        <v>0.03877501750774247</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.023779790842472993</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I277" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>285</v>
-      </c>
-      <c r="B278" t="s">
-        <v>603</v>
-      </c>
-      <c r="C278" t="s">
-        <v>679</v>
-      </c>
-      <c r="D278" t="s">
-        <v>791</v>
-      </c>
-      <c r="E278" t="n">
-        <v>0.013534095631460415</v>
-      </c>
-      <c r="F278" t="n">
-        <v>0.03887248532254962</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.023839565522123983</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I278" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>286</v>
-      </c>
-      <c r="B279" t="s">
-        <v>604</v>
-      </c>
-      <c r="C279" t="s">
-        <v>684</v>
-      </c>
-      <c r="D279" t="s">
-        <v>818</v>
-      </c>
-      <c r="E279" t="n">
-        <v>0.013662958161847292</v>
-      </c>
-      <c r="F279" t="n">
-        <v>0.039011764069180443</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.023924981846256438</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>287</v>
-      </c>
-      <c r="B280" t="s">
-        <v>605</v>
-      </c>
-      <c r="C280" t="s">
-        <v>683</v>
-      </c>
-      <c r="D280" t="s">
-        <v>895</v>
-      </c>
-      <c r="E280" t="n">
-        <v>0.015503232877887393</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.04385355034339476</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.026894333565614985</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>288</v>
-      </c>
-      <c r="B281" t="s">
-        <v>606</v>
-      </c>
-      <c r="C281" t="s">
-        <v>684</v>
-      </c>
-      <c r="D281" t="s">
-        <v>805</v>
-      </c>
-      <c r="E281" t="n">
-        <v>0.016840529271097106</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.04676426148850421</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.02867940309446141</v>
-      </c>
-      <c r="H281" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>289</v>
-      </c>
-      <c r="B282" t="s">
-        <v>607</v>
-      </c>
-      <c r="C282" t="s">
-        <v>684</v>
-      </c>
-      <c r="D282" t="s">
-        <v>805</v>
-      </c>
-      <c r="E282" t="n">
-        <v>0.016840529271097106</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.04676426148850421</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.02867940309446141</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>290</v>
-      </c>
-      <c r="B283" t="s">
-        <v>608</v>
-      </c>
-      <c r="C283" t="s">
-        <v>682</v>
-      </c>
-      <c r="D283" t="s">
-        <v>896</v>
-      </c>
-      <c r="E283" t="n">
-        <v>0.017155913621211175</v>
-      </c>
-      <c r="F283" t="n">
-        <v>0.047585602695633736</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.02918311201250238</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I283" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>291</v>
-      </c>
-      <c r="B284" t="s">
-        <v>609</v>
-      </c>
-      <c r="C284" t="s">
-        <v>683</v>
-      </c>
-      <c r="D284" t="s">
-        <v>897</v>
-      </c>
-      <c r="E284" t="n">
-        <v>0.017181811922147128</v>
-      </c>
-      <c r="F284" t="n">
-        <v>0.04760303371581173</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.02919380204027402</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>292</v>
-      </c>
-      <c r="B285" t="s">
-        <v>610</v>
-      </c>
-      <c r="C285" t="s">
-        <v>684</v>
-      </c>
-      <c r="D285" t="s">
-        <v>820</v>
-      </c>
-      <c r="E285" t="n">
-        <v>0.01796293377605522</v>
-      </c>
-      <c r="F285" t="n">
-        <v>0.04971042220579933</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.030486212998070077</v>
-      </c>
-      <c r="H285" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>293</v>
-      </c>
-      <c r="B286" t="s">
-        <v>611</v>
-      </c>
-      <c r="C286" t="s">
-        <v>684</v>
-      </c>
-      <c r="D286" t="s">
-        <v>898</v>
-      </c>
-      <c r="E286" t="n">
-        <v>0.019116147619087483</v>
-      </c>
-      <c r="F286" t="n">
-        <v>0.05266162346370638</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.032296114144679734</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>294</v>
-      </c>
-      <c r="B287" t="s">
-        <v>612</v>
-      </c>
-      <c r="C287" t="s">
-        <v>684</v>
-      </c>
-      <c r="D287" t="s">
-        <v>898</v>
-      </c>
-      <c r="E287" t="n">
-        <v>0.019116147619087483</v>
-      </c>
-      <c r="F287" t="n">
-        <v>0.05266162346370638</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.032296114144679734</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>295</v>
-      </c>
-      <c r="B288" t="s">
-        <v>613</v>
-      </c>
-      <c r="C288" t="s">
-        <v>684</v>
-      </c>
-      <c r="D288" t="s">
-        <v>899</v>
-      </c>
-      <c r="E288" t="n">
-        <v>0.02029969969332719</v>
-      </c>
-      <c r="F288" t="n">
-        <v>0.05523247887410885</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.03387275827987332</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>296</v>
-      </c>
-      <c r="B289" t="s">
-        <v>614</v>
-      </c>
-      <c r="C289" t="s">
-        <v>684</v>
-      </c>
-      <c r="D289" t="s">
-        <v>899</v>
-      </c>
-      <c r="E289" t="n">
-        <v>0.02029969969332719</v>
-      </c>
-      <c r="F289" t="n">
-        <v>0.05523247887410885</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.03387275827987332</v>
-      </c>
-      <c r="H289" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>297</v>
-      </c>
-      <c r="B290" t="s">
-        <v>615</v>
-      </c>
-      <c r="C290" t="s">
-        <v>684</v>
-      </c>
-      <c r="D290" t="s">
-        <v>899</v>
-      </c>
-      <c r="E290" t="n">
-        <v>0.02029969969332719</v>
-      </c>
-      <c r="F290" t="n">
-        <v>0.05523247887410885</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.03387275827987332</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>298</v>
-      </c>
-      <c r="B291" t="s">
-        <v>616</v>
-      </c>
-      <c r="C291" t="s">
-        <v>680</v>
-      </c>
-      <c r="D291" t="s">
-        <v>900</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.020797938852049967</v>
-      </c>
-      <c r="F291" t="n">
-        <v>0.05652474534594095</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.034665274399479765</v>
-      </c>
-      <c r="H291" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I291" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>299</v>
-      </c>
-      <c r="B292" t="s">
-        <v>617</v>
-      </c>
-      <c r="C292" t="s">
-        <v>680</v>
-      </c>
-      <c r="D292" t="s">
-        <v>901</v>
-      </c>
-      <c r="E292" t="n">
-        <v>0.021088999566277133</v>
-      </c>
-      <c r="F292" t="n">
-        <v>0.057187711673021904</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.03507185579149176</v>
-      </c>
-      <c r="H292" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I292" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>300</v>
-      </c>
-      <c r="B293" t="s">
-        <v>618</v>
-      </c>
-      <c r="C293" t="s">
-        <v>679</v>
-      </c>
-      <c r="D293" t="s">
-        <v>902</v>
-      </c>
-      <c r="E293" t="n">
-        <v>0.021542695927789554</v>
-      </c>
-      <c r="F293" t="n">
-        <v>0.05809347001860583</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.035627335721513956</v>
-      </c>
-      <c r="H293" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I293" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>301</v>
-      </c>
-      <c r="B294" t="s">
-        <v>619</v>
-      </c>
-      <c r="C294" t="s">
-        <v>684</v>
-      </c>
-      <c r="D294" t="s">
-        <v>903</v>
-      </c>
-      <c r="E294" t="n">
-        <v>0.022755958845075423</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0.061161364470651215</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.03750880201309862</v>
-      </c>
-      <c r="H294" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>302</v>
-      </c>
-      <c r="B295" t="s">
-        <v>620</v>
-      </c>
-      <c r="C295" t="s">
-        <v>682</v>
-      </c>
-      <c r="D295" t="s">
-        <v>904</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.022783996824001694</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0.06116898262373021</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.03751347404417606</v>
-      </c>
-      <c r="H295" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I295" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>303</v>
-      </c>
-      <c r="B296" t="s">
-        <v>621</v>
-      </c>
-      <c r="C296" t="s">
-        <v>682</v>
-      </c>
-      <c r="D296" t="s">
-        <v>905</v>
-      </c>
-      <c r="E296" t="n">
-        <v>0.023738184267236142</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0.06359003666289416</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.03899824858123842</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I296" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>304</v>
-      </c>
-      <c r="B297" t="s">
-        <v>622</v>
-      </c>
-      <c r="C297" t="s">
-        <v>684</v>
-      </c>
-      <c r="D297" t="s">
-        <v>871</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.024027748310553817</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.06415329499418494</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.03934368144418169</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>305</v>
-      </c>
-      <c r="B298" t="s">
-        <v>623</v>
-      </c>
-      <c r="C298" t="s">
-        <v>684</v>
-      </c>
-      <c r="D298" t="s">
-        <v>871</v>
-      </c>
-      <c r="E298" t="n">
-        <v>0.024027748310553817</v>
-      </c>
-      <c r="F298" t="n">
-        <v>0.06415329499418494</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.03934368144418169</v>
-      </c>
-      <c r="H298" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>306</v>
-      </c>
-      <c r="B299" t="s">
-        <v>624</v>
-      </c>
-      <c r="C299" t="s">
-        <v>682</v>
-      </c>
-      <c r="D299" t="s">
-        <v>906</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.025214381436640478</v>
-      </c>
-      <c r="F299" t="n">
-        <v>0.06702661965687452</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.041105822737544984</v>
-      </c>
-      <c r="H299" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I299" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>307</v>
-      </c>
-      <c r="B300" t="s">
-        <v>625</v>
-      </c>
-      <c r="C300" t="s">
-        <v>682</v>
-      </c>
-      <c r="D300" t="s">
-        <v>811</v>
-      </c>
-      <c r="E300" t="n">
-        <v>0.026228620795110732</v>
-      </c>
-      <c r="F300" t="n">
-        <v>0.06941860705532579</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.04257277139905479</v>
-      </c>
-      <c r="H300" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I300" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>308</v>
-      </c>
-      <c r="B301" t="s">
-        <v>626</v>
-      </c>
-      <c r="C301" t="s">
-        <v>676</v>
-      </c>
-      <c r="D301" t="s">
-        <v>907</v>
-      </c>
-      <c r="E301" t="n">
-        <v>0.026413437706207486</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0.06983160491608449</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.04282605310925053</v>
-      </c>
-      <c r="H301" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I301" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>309</v>
-      </c>
-      <c r="B302" t="s">
-        <v>627</v>
-      </c>
-      <c r="C302" t="s">
-        <v>684</v>
-      </c>
-      <c r="D302" t="s">
-        <v>826</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0.026656389221482307</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.06986507196602328</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.04284657765053539</v>
-      </c>
-      <c r="H302" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>310</v>
-      </c>
-      <c r="B303" t="s">
-        <v>628</v>
-      </c>
-      <c r="C303" t="s">
-        <v>679</v>
-      </c>
-      <c r="D303" t="s">
-        <v>766</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.026912407785372808</v>
-      </c>
-      <c r="F303" t="n">
-        <v>0.07045999319859741</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.04321142861354359</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I303" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>311</v>
-      </c>
-      <c r="B304" t="s">
-        <v>629</v>
-      </c>
-      <c r="C304" t="s">
-        <v>680</v>
-      </c>
-      <c r="D304" t="s">
-        <v>908</v>
-      </c>
-      <c r="E304" t="n">
-        <v>0.028562949612868656</v>
-      </c>
-      <c r="F304" t="n">
-        <v>0.07406226357952161</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.04542061488146231</v>
-      </c>
-      <c r="H304" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I304" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>312</v>
-      </c>
-      <c r="B305" t="s">
-        <v>630</v>
-      </c>
-      <c r="C305" t="s">
-        <v>682</v>
-      </c>
-      <c r="D305" t="s">
-        <v>799</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.02887032485139956</v>
-      </c>
-      <c r="F305" t="n">
-        <v>0.07454072171739014</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.045714041813974225</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I305" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>313</v>
-      </c>
-      <c r="B306" t="s">
-        <v>631</v>
-      </c>
-      <c r="C306" t="s">
-        <v>684</v>
-      </c>
-      <c r="D306" t="s">
-        <v>909</v>
-      </c>
-      <c r="E306" t="n">
-        <v>0.029395491243282737</v>
-      </c>
-      <c r="F306" t="n">
-        <v>0.07549508703433568</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.04629933123698334</v>
-      </c>
-      <c r="H306" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I306" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>314</v>
-      </c>
-      <c r="B307" t="s">
-        <v>632</v>
-      </c>
-      <c r="C307" t="s">
-        <v>684</v>
-      </c>
-      <c r="D307" t="s">
-        <v>909</v>
-      </c>
-      <c r="E307" t="n">
-        <v>0.029395491243282737</v>
-      </c>
-      <c r="F307" t="n">
-        <v>0.07549508703433568</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.04629933123698334</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>315</v>
-      </c>
-      <c r="B308" t="s">
-        <v>633</v>
-      </c>
-      <c r="C308" t="s">
-        <v>683</v>
-      </c>
-      <c r="D308" t="s">
-        <v>813</v>
-      </c>
-      <c r="E308" t="n">
-        <v>0.03087484728858096</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.07896022588976395</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.048424418020135855</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>316</v>
-      </c>
-      <c r="B309" t="s">
-        <v>634</v>
-      </c>
-      <c r="C309" t="s">
-        <v>676</v>
-      </c>
-      <c r="D309" t="s">
-        <v>910</v>
-      </c>
-      <c r="E309" t="n">
-        <v>0.0324440832418019</v>
-      </c>
-      <c r="F309" t="n">
-        <v>0.081950508393175</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05025828675989394</v>
-      </c>
-      <c r="H309" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I309" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>317</v>
-      </c>
-      <c r="B310" t="s">
-        <v>635</v>
-      </c>
-      <c r="C310" t="s">
-        <v>683</v>
-      </c>
-      <c r="D310" t="s">
-        <v>804</v>
-      </c>
-      <c r="E310" t="n">
-        <v>0.032483061011221406</v>
-      </c>
-      <c r="F310" t="n">
-        <v>0.081950508393175</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05025828675989394</v>
-      </c>
-      <c r="H310" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>318</v>
-      </c>
-      <c r="B311" t="s">
-        <v>636</v>
-      </c>
-      <c r="C311" t="s">
-        <v>684</v>
-      </c>
-      <c r="D311" t="s">
-        <v>911</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0.03370366591788984</v>
-      </c>
-      <c r="F311" t="n">
-        <v>0.08476559293545974</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05198471078036132</v>
-      </c>
-      <c r="H311" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>319</v>
-      </c>
-      <c r="B312" t="s">
-        <v>637</v>
-      </c>
-      <c r="C312" t="s">
-        <v>683</v>
-      </c>
-      <c r="D312" t="s">
-        <v>783</v>
-      </c>
-      <c r="E312" t="n">
-        <v>0.03413428765684157</v>
-      </c>
-      <c r="F312" t="n">
-        <v>0.08575974756020134</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05259440203418763</v>
-      </c>
-      <c r="H312" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>320</v>
-      </c>
-      <c r="B313" t="s">
-        <v>638</v>
-      </c>
-      <c r="C313" t="s">
-        <v>676</v>
-      </c>
-      <c r="D313" t="s">
-        <v>912</v>
-      </c>
-      <c r="E313" t="n">
-        <v>0.03452527983445292</v>
-      </c>
-      <c r="F313" t="n">
-        <v>0.08665238279029704</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.053141833871350824</v>
-      </c>
-      <c r="H313" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I313" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>321</v>
-      </c>
-      <c r="B314" t="s">
-        <v>639</v>
-      </c>
-      <c r="C314" t="s">
-        <v>684</v>
-      </c>
-      <c r="D314" t="s">
-        <v>913</v>
-      </c>
-      <c r="E314" t="n">
-        <v>0.03519123115761505</v>
-      </c>
-      <c r="F314" t="n">
-        <v>0.08803385763161815</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05398905935033854</v>
-      </c>
-      <c r="H314" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>322</v>
-      </c>
-      <c r="B315" t="s">
-        <v>640</v>
-      </c>
-      <c r="C315" t="s">
-        <v>682</v>
-      </c>
-      <c r="D315" t="s">
-        <v>764</v>
-      </c>
-      <c r="E315" t="n">
-        <v>0.035220797593861236</v>
-      </c>
-      <c r="F315" t="n">
-        <v>0.08803385763161815</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05398905935033854</v>
-      </c>
-      <c r="H315" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I315" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>323</v>
-      </c>
-      <c r="B316" t="s">
-        <v>641</v>
-      </c>
-      <c r="C316" t="s">
-        <v>682</v>
-      </c>
-      <c r="D316" t="s">
-        <v>914</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.03583509553595716</v>
-      </c>
-      <c r="F316" t="n">
-        <v>0.08938517663491061</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05481779097511054</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1167</v>
-      </c>
-      <c r="I316" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>324</v>
-      </c>
-      <c r="B317" t="s">
-        <v>642</v>
-      </c>
-      <c r="C317" t="s">
-        <v>684</v>
-      </c>
-      <c r="D317" t="s">
-        <v>847</v>
-      </c>
-      <c r="E317" t="n">
-        <v>0.03824112817525477</v>
-      </c>
-      <c r="F317" t="n">
-        <v>0.09489899599319358</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.058199284511689</v>
-      </c>
-      <c r="H317" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>325</v>
-      </c>
-      <c r="B318" t="s">
-        <v>643</v>
-      </c>
-      <c r="C318" t="s">
-        <v>682</v>
-      </c>
-      <c r="D318" t="s">
-        <v>781</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.038354180124169725</v>
-      </c>
-      <c r="F318" t="n">
-        <v>0.09508232396461687</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05831171517184667</v>
-      </c>
-      <c r="H318" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I318" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>326</v>
-      </c>
-      <c r="B319" t="s">
-        <v>644</v>
-      </c>
-      <c r="C319" t="s">
-        <v>684</v>
-      </c>
-      <c r="D319" t="s">
-        <v>881</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.039802644158198</v>
-      </c>
-      <c r="F319" t="n">
-        <v>0.09827163516983373</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06026764345418641</v>
-      </c>
-      <c r="H319" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I319" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>